--- a/Notebooks/temp/mass_unbalanced_reactions.xlsx
+++ b/Notebooks/temp/mass_unbalanced_reactions.xlsx
@@ -12492,105 +12492,105 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>BiGGRxn91</t>
+          <t>DHPS</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Rh3cit_c &lt;=&gt; HC00342_c + h2o_c</t>
+          <t>lys_L_c + spmd_c &lt;=&gt; 13dampp_c + dohps_c + 2.0 h_c</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>[{'Rh3cit_c': 'C9H11O7'}, {'h2o_c': 'H2O'}, {'HC00342_c': 'C6H3O6'}]</t>
+          <t>[{'lys_L_c': 'C6H15N2O2'}, {'spmd_c': 'C7H22N3'}, {'13dampp_c': 'C3H12N2'}, {'dohps_c': 'C10H25N3O2'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>{'C': -3, 'H': -6, 'charge': -3}</t>
+          <t>{'charge': 2.0, 'H': 2.0}</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>DHPS</t>
+          <t>DMT</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>lys_L_c + spmd_c &lt;=&gt; 13dampp_c + dohps_c + 2.0 h_c</t>
+          <t>amet_n + dnac_n &lt;=&gt; ahcys_n + dna5mtc_n + h_n</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>[{'lys_L_c': 'C6H15N2O2'}, {'spmd_c': 'C7H22N3'}, {'13dampp_c': 'C3H12N2'}, {'dohps_c': 'C10H25N3O2'}, {'h_c': 'H'}]</t>
+          <t>[{'dnac_n': 'C19H30N3O17P3R'}, {'amet_n': 'C15H23N6O5S'}, {'h_n': 'H'}, {'ahcys_n': 'C14H20N6O5S'}, {'dna5mtc_n': 'C11H19O8PR2'}]</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>{'charge': 2.0, 'H': 2.0}</t>
+          <t>{'C': -9, 'H': -13, 'N': -3, 'O': -9, 'P': -2, 'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>DMT</t>
+          <t>DNMPPA</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>amet_n + dnac_n &lt;=&gt; ahcys_n + dna5mtc_n + h_n</t>
+          <t>dhpmp_c + h2o_c &lt;=&gt; HC01361_c + pi_c</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>[{'dnac_n': 'C19H30N3O17P3R'}, {'amet_n': 'C15H23N6O5S'}, {'h_n': 'H'}, {'ahcys_n': 'C14H20N6O5S'}, {'dna5mtc_n': 'C11H19O8PR2'}]</t>
+          <t>[{'h2o_c': 'H2O'}, {'dhpmp_c': 'C9H12N5O7P'}, {'pi_c': 'HO4P'}, {'HC01361_c': 'C9H13N5O4'}]</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>{'C': -9, 'H': -13, 'N': -3, 'O': -9, 'P': -2, 'R': 1}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>DNMPPA</t>
+          <t>FCYTOB5OXR</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>dhpmp_c + h2o_c &lt;=&gt; HC01361_c + pi_c</t>
+          <t>2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>[{'h2o_c': 'H2O'}, {'dhpmp_c': 'C9H12N5O7P'}, {'pi_c': 'HO4P'}, {'HC01361_c': 'C9H13N5O4'}]</t>
+          <t>[{'ficytb5_c': 'C34H32FeN4O4R4'}, {'nadh_c': 'C21H27N7O14P2'}, {'focytb5_c': 'C34H32FeN4O4R4'}, {'h_c': 'H'}, {'nad_c': 'C21H26N7O14P2'}]</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'charge': 2}</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>FCYTOB5OXR</t>
+          <t>FCYTOB5OXRm</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
+          <t>2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>[{'ficytb5_c': 'C34H32FeN4O4R4'}, {'nadh_c': 'C21H27N7O14P2'}, {'focytb5_c': 'C34H32FeN4O4R4'}, {'h_c': 'H'}, {'nad_c': 'C21H26N7O14P2'}]</t>
+          <t>[{'ficytb5_m': 'C34H32FeN4O4R4'}, {'nadh_m': 'C21H27N7O14P2'}, {'focytb5_m': 'C34H32FeN4O4R4'}, {'h_m': 'H'}, {'nad_m': 'C21H26N7O14P2'}]</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -12602,17 +12602,17 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>FCYTOB5OXRm</t>
+          <t>FCYTOB5OXRr</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
+          <t>2.0 ficytb5_r + nadh_r --&gt; 2.0 focytb5_r + h_r + nad_r</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>[{'ficytb5_m': 'C34H32FeN4O4R4'}, {'nadh_m': 'C21H27N7O14P2'}, {'focytb5_m': 'C34H32FeN4O4R4'}, {'h_m': 'H'}, {'nad_m': 'C21H26N7O14P2'}]</t>
+          <t>[{'ficytb5_r': 'C34H32FeN4O4R4'}, {'nadh_r': 'C21H27N7O14P2'}, {'focytb5_r': 'C34H32FeN4O4R4'}, {'h_r': 'H'}, {'nad_r': 'C21H26N7O14P2'}]</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -12624,17 +12624,17 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>FCYTOB5OXRr</t>
+          <t>FCYTOB5OXRy</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2.0 ficytb5_r + nadh_r --&gt; 2.0 focytb5_r + h_r + nad_r</t>
+          <t>2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>[{'ficytb5_r': 'C34H32FeN4O4R4'}, {'nadh_r': 'C21H27N7O14P2'}, {'focytb5_r': 'C34H32FeN4O4R4'}, {'h_r': 'H'}, {'nad_r': 'C21H26N7O14P2'}]</t>
+          <t>[{'ficytb5_c': 'C34H32FeN4O4R4'}, {'nadph_c': 'C21H26N7O17P3'}, {'focytb5_c': 'C34H32FeN4O4R4'}, {'h_c': 'H'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -12646,17 +12646,17 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>FCYTOB5OXRy</t>
+          <t>FCYTOB5OXRyr</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
+          <t>2.0 ficytb5_r + nadph_r --&gt; 2.0 focytb5_r + h_r + nadp_r</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>[{'ficytb5_c': 'C34H32FeN4O4R4'}, {'nadph_c': 'C21H26N7O17P3'}, {'focytb5_c': 'C34H32FeN4O4R4'}, {'h_c': 'H'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
+          <t>[{'ficytb5_r': 'C34H32FeN4O4R4'}, {'nadph_r': 'C21H26N7O17P3'}, {'focytb5_r': 'C34H32FeN4O4R4'}, {'h_r': 'H'}, {'nadp_r': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -12668,479 +12668,479 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>FCYTOB5OXRyr</t>
+          <t>FTMTm</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2.0 ficytb5_r + nadph_r --&gt; 2.0 focytb5_r + h_r + nadp_r</t>
+          <t>4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>[{'ficytb5_r': 'C34H32FeN4O4R4'}, {'nadph_r': 'C21H26N7O17P3'}, {'focytb5_r': 'C34H32FeN4O4R4'}, {'h_r': 'H'}, {'nadp_r': 'C21H25N7O17P3'}]</t>
+          <t>[{'fe2_m': 'Fe'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'fe3_m': 'Fe'}, {'h2o_m': 'H2O'}]</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>{'charge': 2}</t>
+          <t>{'charge': -12.0}</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>FTMTm</t>
+          <t>HMR_7741</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
+          <t>2.0 fdxrd_m + h_m + nadp_m &lt;=&gt; 2.0 fdxo_2_2_m + nadph_m</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>[{'fe2_m': 'Fe'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'fe3_m': 'Fe'}, {'h2o_m': 'H2O'}]</t>
+          <t>[{'fdxrd_m': 'Fe2S2X'}, {'h_m': 'H'}, {'nadp_m': 'C21H25N7O17P3'}, {'fdxo_2_2_m': 'Fe2S2X'}, {'nadph_m': 'C21H26N7O17P3'}]</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>{'charge': -12.0}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>HMR_7741</t>
+          <t>HMR_9464</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2.0 fdxrd_m + h_m + nadp_m &lt;=&gt; 2.0 fdxo_2_2_m + nadph_m</t>
+          <t>M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>[{'fdxrd_m': 'Fe2S2X'}, {'h_m': 'H'}, {'nadp_m': 'C21H25N7O17P3'}, {'fdxo_2_2_m': 'Fe2S2X'}, {'nadph_m': 'C21H26N7O17P3'}]</t>
+          <t>[{'M01678_c': 'C18H32O16'}, {'h2o_c': 'H2O'}, {'M01677_c': 'X'}, {'glc_D_c': 'C6H12O6'}]</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'C': -12, 'H': -22, 'O': -11, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>HMR_9464</t>
+          <t>HMR_9484</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
+          <t>M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>[{'M01678_c': 'C18H32O16'}, {'h2o_c': 'H2O'}, {'M01677_c': 'X'}, {'glc_D_c': 'C6H12O6'}]</t>
+          <t>[{'M02671_c': 'C20H24N10O21P4'}, {'h2o_c': 'H2O'}, {'gmp_c': 'C10H12N5O8P'}, {'gtp_c': 'C10H12N5O14P3'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>{'C': -12, 'H': -22, 'O': -11, 'X': 1}</t>
+          <t>{'charge': -4.0}</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>HMR_9484</t>
+          <t>HMR_9485</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
+          <t>M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>[{'M02671_c': 'C20H24N10O21P4'}, {'h2o_c': 'H2O'}, {'gmp_c': 'C10H12N5O8P'}, {'gtp_c': 'C10H12N5O14P3'}, {'h_c': 'H'}]</t>
+          <t>[{'M01437_c': 'C24H41N3O16'}, {'h2o_c': 'H2O'}, {'M01436_c': 'X'}, {'acgam_c': 'C8H15NO6'}]</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>{'charge': -4.0}</t>
+          <t>{'C': -16, 'H': -28, 'N': -2, 'O': -11, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>HMR_9485</t>
+          <t>HMR_9487</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
+          <t>M00136_c + nad_c &lt;=&gt; M00137_c + h_c + ncam_c</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>[{'M01437_c': 'C24H41N3O16'}, {'h2o_c': 'H2O'}, {'M01436_c': 'X'}, {'acgam_c': 'C8H15NO6'}]</t>
+          <t>[{'M00136_c': 'X'}, {'nad_c': 'C21H26N7O14P2'}, {'M00137_c': 'X'}, {'h_c': 'H'}, {'ncam_c': 'C6H6N2O'}]</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>{'C': -16, 'H': -28, 'N': -2, 'O': -11, 'X': 1}</t>
+          <t>{'charge': 2, 'C': -15, 'H': -19, 'N': -5, 'O': -13, 'P': -2}</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>HMR_9487</t>
+          <t>HMR_9488</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>M00136_c + nad_c &lt;=&gt; M00137_c + h_c + ncam_c</t>
+          <t>2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>[{'M00136_c': 'X'}, {'nad_c': 'C21H26N7O14P2'}, {'M00137_c': 'X'}, {'h_c': 'H'}, {'ncam_c': 'C6H6N2O'}]</t>
+          <t>[{'M00193_c': 'X'}, {'atp_c': 'C10H12N5O13P3'}, {'M00192_c': 'X'}, {'adp_c': 'C10H12N5O10P2'}]</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>{'charge': 2, 'C': -15, 'H': -19, 'N': -5, 'O': -13, 'P': -2}</t>
+          <t>{'X': -1.0, 'charge': 4.0, 'O': -12.0, 'P': -4.0}</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>HMR_9488</t>
+          <t>HMR_9490</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
+          <t>M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>[{'M00193_c': 'X'}, {'atp_c': 'C10H12N5O13P3'}, {'M00192_c': 'X'}, {'adp_c': 'C10H12N5O10P2'}]</t>
+          <t>[{'M03104_c': 'X'}, {'h2o_c': 'H2O'}, {'HC00250_c': 'HS'}, {'M03105_c': 'X'}]</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>{'X': -1.0, 'charge': 4.0, 'O': -12.0, 'P': -4.0}</t>
+          <t>{'charge': -1, 'H': -1, 'O': -1, 'S': 1}</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>HMR_9490</t>
+          <t>HMR_9491</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
+          <t>M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>[{'M03104_c': 'X'}, {'h2o_c': 'H2O'}, {'HC00250_c': 'HS'}, {'M03105_c': 'X'}]</t>
+          <t>[{'M03105_c': 'X'}, {'atp_c': 'C10H12N5O13P3'}, {'peplys_c': 'XH'}, {'M00214_c': 'X'}, {'amp_c': 'C10H12N5O7P'}, {'ppi_c': 'HO7P2'}]</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1, 'O': -1, 'S': 1}</t>
+          <t>{'X': -1, 'charge': -1, 'O': 1}</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>HMR_9491</t>
+          <t>HMR_9493</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
+          <t>M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>[{'M03105_c': 'X'}, {'atp_c': 'C10H12N5O13P3'}, {'peplys_c': 'XH'}, {'M00214_c': 'X'}, {'amp_c': 'C10H12N5O7P'}, {'ppi_c': 'HO7P2'}]</t>
+          <t>[{'M00190_c': 'C4H6N2O3R2'}, {'atp_c': 'C10H12N5O13P3'}, {'h_c': 'H'}, {'M00191_c': 'C20H24N10O16P3'}, {'adp_c': 'C10H12N5O10P2'}]</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>{'X': -1, 'charge': -1, 'O': 1}</t>
+          <t>{'C': 16, 'H': 17, 'N': 8, 'O': 10, 'R': -2, 'P': 2}</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>HMR_9493</t>
+          <t>HMR_9496</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
+          <t>M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>[{'M00190_c': 'C4H6N2O3R2'}, {'atp_c': 'C10H12N5O13P3'}, {'h_c': 'H'}, {'M00191_c': 'C20H24N10O16P3'}, {'adp_c': 'C10H12N5O10P2'}]</t>
+          <t>[{'M00201_c': 'C5H8N2O2'}, {'M01310_c': 'NH2R'}, {'M00207_c': 'C6H8N3O3R3'}, {'nh4_c': 'H4N'}]</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>{'C': 16, 'H': 17, 'N': 8, 'O': 10, 'R': -2, 'P': 2}</t>
+          <t>{'C': 1, 'H': 2, 'N': 1, 'O': 1, 'R': 2, 'charge': 1}</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>HMR_9496</t>
+          <t>HMR_9497</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
+          <t>M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>[{'M00201_c': 'C5H8N2O2'}, {'M01310_c': 'NH2R'}, {'M00207_c': 'C6H8N3O3R3'}, {'nh4_c': 'H4N'}]</t>
+          <t>[{'M01360_c': 'C20H24N10O16P3'}, {'h2o_c': 'H2O'}, {'adp_c': 'C10H12N5O10P2'}, {'amp_c': 'C10H12N5O7P'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>{'C': 1, 'H': 2, 'N': 1, 'O': 1, 'R': 2, 'charge': 1}</t>
+          <t>{'charge': -3.0}</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>HMR_9497</t>
+          <t>HMR_9498</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
+          <t>M00200_c + M01719_c &lt;=&gt; M00216_c + M01720_c</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>[{'M01360_c': 'C20H24N10O16P3'}, {'h2o_c': 'H2O'}, {'adp_c': 'C10H12N5O10P2'}, {'amp_c': 'C10H12N5O7P'}, {'h_c': 'H'}]</t>
+          <t>[{'M00200_c': 'C3H5NOS'}, {'M01719_c': 'C11H16N5O7P'}, {'M00216_c': 'C5H8N2O2SR2'}, {'M01720_c': 'C10H14N5O7P'}]</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>{'charge': -3.0}</t>
+          <t>{'C': 1, 'H': 1, 'N': 1, 'O': 1, 'R': 2}</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>HMR_9498</t>
+          <t>HMR_9499</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>M00200_c + M01719_c &lt;=&gt; M00216_c + M01720_c</t>
+          <t>M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>[{'M00200_c': 'C3H5NOS'}, {'M01719_c': 'C11H16N5O7P'}, {'M00216_c': 'C5H8N2O2SR2'}, {'M01720_c': 'C10H14N5O7P'}]</t>
+          <t>[{'M02918_c': 'C20H36N2O3SR2'}, {'h2o_c': 'H2O'}, {'M00200_c': 'C3H5NOS'}, {'hdca_c': 'C16H31O2'}]</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>{'C': 1, 'H': 1, 'N': 1, 'O': 1, 'R': 2}</t>
+          <t>{'C': -1, 'H': -2, 'N': -1, 'O': -1, 'R': -2, 'charge': -1}</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>HMR_9499</t>
+          <t>HMR_9501</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
+          <t>2.0 focytC_c + h_c + nadp_c &lt;=&gt; 2.0 ficytC_c + nadph_c</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>[{'M02918_c': 'C20H36N2O3SR2'}, {'h2o_c': 'H2O'}, {'M00200_c': 'C3H5NOS'}, {'hdca_c': 'C16H31O2'}]</t>
+          <t>[{'focytC_c': 'C42H54FeN8O6S2'}, {'h_c': 'H'}, {'nadp_c': 'C21H25N7O17P3'}, {'ficytC_c': 'C42H54FeN8O6S2'}, {'nadph_c': 'C21H26N7O17P3'}]</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>{'C': -1, 'H': -2, 'N': -1, 'O': -1, 'R': -2, 'charge': -1}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>HMR_9501</t>
+          <t>HMR_9502</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2.0 focytC_c + h_c + nadp_c &lt;=&gt; 2.0 ficytC_c + nadph_c</t>
+          <t>M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>[{'focytC_c': 'C42H54FeN8O6S2'}, {'h_c': 'H'}, {'nadp_c': 'C21H25N7O17P3'}, {'ficytC_c': 'C42H54FeN8O6S2'}, {'nadph_c': 'C21H26N7O17P3'}]</t>
+          <t>[{'M02669_c': 'C43H67N12O12S2'}, {'h2o_c': 'H2O'}, {'CE5799_c': 'C2H7N2O'}, {'CE5800_c': 'X'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'C': -41, 'H': -61, 'N': -10, 'O': -12, 'S': -2, 'charge': 1, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>HMR_9502</t>
+          <t>HMR_9503</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
+          <t>atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>[{'M02669_c': 'C43H67N12O12S2'}, {'h2o_c': 'H2O'}, {'CE5799_c': 'C2H7N2O'}, {'CE5800_c': 'X'}, {'h_c': 'H'}]</t>
+          <t>[{'retinal_11_cis_c': 'C20H28O'}, {'atp_c': 'C10H12N5O13P3'}, {'M02743_c': 'X'}, {'adp_c': 'C10H12N5O10P2'}]</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>{'C': -41, 'H': -61, 'N': -10, 'O': -12, 'S': -2, 'charge': 1, 'X': 1}</t>
+          <t>{'charge': 1, 'C': -20, 'H': -28, 'O': -4, 'P': -1, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>HMR_9503</t>
+          <t>HMR_9507</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
+          <t>M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>[{'retinal_11_cis_c': 'C20H28O'}, {'atp_c': 'C10H12N5O13P3'}, {'M02743_c': 'X'}, {'adp_c': 'C10H12N5O10P2'}]</t>
+          <t>[{'M01129_c': 'C10H16O13P2R2'}, {'h2o_c': 'H2O'}, {'M02755_c': 'C10H17O10PR2'}, {'pi_c': 'HO4P'}]</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'C': -20, 'H': -28, 'O': -4, 'P': -1, 'X': 1}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>HMR_9507</t>
+          <t>HMR_9509</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
+          <t>M01864_c + amet_c &lt;=&gt; M02438_c + ahcys_c</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>[{'M01129_c': 'C10H16O13P2R2'}, {'h2o_c': 'H2O'}, {'M02755_c': 'C10H17O10PR2'}, {'pi_c': 'HO4P'}]</t>
+          <t>[{'M01864_c': 'C20H31N5O23P4R2'}, {'amet_c': 'C15H23N6O5S'}, {'M02438_c': 'C21H34N5O23P4R2'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'charge': -1}</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>HMR_9509</t>
+          <t>HMR_9513</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>M01864_c + amet_c &lt;=&gt; M02438_c + ahcys_c</t>
+          <t>dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>[{'M01864_c': 'C20H31N5O23P4R2'}, {'amet_c': 'C15H23N6O5S'}, {'M02438_c': 'C21H34N5O23P4R2'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
+          <t>[{'dmlarg_c': 'C8H19N4O2'}, {'h2o_c': 'H2O'}, {'dma_c': 'C2H7N'}, {'citr_L_c': 'C6H13N3O3'}]</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>{'charge': -1}</t>
+          <t>{'H': -1}</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>HMR_9513</t>
+          <t>HMR_9515</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
+          <t>M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>[{'dmlarg_c': 'C8H19N4O2'}, {'h2o_c': 'H2O'}, {'dma_c': 'C2H7N'}, {'citr_L_c': 'C6H13N3O3'}]</t>
+          <t>[{'M02545_c': 'C13H19NO10'}, {'h2o_c': 'H2O'}, {'ac_c': 'C2H3O2'}, {'acnam_c': 'C11H18NO9'}]</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>{'H': -1}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>HMR_9515</t>
+          <t>HMR_9516</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
+          <t>M00220_c + h2o_c --&gt; M00219_c + pi_c</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>[{'M02545_c': 'C13H19NO10'}, {'h2o_c': 'H2O'}, {'ac_c': 'C2H3O2'}, {'acnam_c': 'C11H18NO9'}]</t>
+          <t>[{'M00220_c': 'C4H5N2O6PR2'}, {'h2o_c': 'H2O'}, {'M00219_c': 'C4H6N2O3R2'}, {'pi_c': 'HO4P'}]</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -13152,369 +13152,369 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>HMR_9516</t>
+          <t>HMR_9517</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>M00220_c + h2o_c --&gt; M00219_c + pi_c</t>
+          <t>M00219_c + atp_c --&gt; M00220_c + adp_c + h_c</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>[{'M00220_c': 'C4H5N2O6PR2'}, {'h2o_c': 'H2O'}, {'M00219_c': 'C4H6N2O3R2'}, {'pi_c': 'HO4P'}]</t>
+          <t>[{'M00219_c': 'C4H6N2O3R2'}, {'atp_c': 'C10H12N5O13P3'}, {'M00220_c': 'C4H5N2O6PR2'}, {'adp_c': 'C10H12N5O10P2'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'charge': 2}</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>HMR_9517</t>
+          <t>HMR_9525</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>M00219_c + atp_c --&gt; M00220_c + adp_c + h_c</t>
+          <t>M01367_c + amet_c + h_c &lt;=&gt; M02474_c + ahcys_c</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>[{'M00219_c': 'C4H6N2O3R2'}, {'atp_c': 'C10H12N5O13P3'}, {'M00220_c': 'C4H5N2O6PR2'}, {'adp_c': 'C10H12N5O10P2'}, {'h_c': 'H'}]</t>
+          <t>[{'M01367_c': 'AsO3'}, {'amet_c': 'C15H23N6O5S'}, {'h_c': 'H'}, {'M02474_c': 'CH4AsO3'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>{'charge': 2}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>HMR_9525</t>
+          <t>HMR_9538</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>M01367_c + amet_c + h_c &lt;=&gt; M02474_c + ahcys_c</t>
+          <t>h_c + nadh_c + phyQ_c &lt;=&gt; M02829_c + nad_c</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>[{'M01367_c': 'AsO3'}, {'amet_c': 'C15H23N6O5S'}, {'h_c': 'H'}, {'M02474_c': 'CH4AsO3'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
+          <t>[{'phyQ_c': 'C31H46O2'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}, {'M02829_c': 'C11H9O2R'}, {'nad_c': 'C21H26N7O14P2'}]</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'C': -20, 'H': -39, 'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>HMR_9538</t>
+          <t>HMR_9552</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>h_c + nadh_c + phyQ_c &lt;=&gt; M02829_c + nad_c</t>
+          <t>M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>[{'phyQ_c': 'C31H46O2'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}, {'M02829_c': 'C11H9O2R'}, {'nad_c': 'C21H26N7O14P2'}]</t>
+          <t>[{'M01710_c': 'X'}, {'h2o_c': 'H2O'}, {'M02493_c': 'X'}, {'pi_c': 'HO4P'}]</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>{'C': -20, 'H': -39, 'R': 1}</t>
+          <t>{'charge': -2, 'H': -1, 'O': 3, 'P': 1}</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>HMR_9552</t>
+          <t>HMR_9554</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
+          <t>M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>[{'M01710_c': 'X'}, {'h2o_c': 'H2O'}, {'M02493_c': 'X'}, {'pi_c': 'HO4P'}]</t>
+          <t>[{'M00683_c': 'C54H89N2O25P2R7'}, {'h2o_c': 'H2O'}, {'Rtotal2_c': 'CO2R2'}, {'M00774_c': 'C52H91N2O23P2R5'}]</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>{'charge': -2, 'H': -1, 'O': 3, 'P': 1}</t>
+          <t>{'H': -2.0, 'R': 2.0, 'charge': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>HMR_9554</t>
+          <t>HMR_9561</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
+          <t>M02837_e + h2o_e --&gt; hdca_e + retinol_e</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>[{'M00683_c': 'C54H89N2O25P2R7'}, {'h2o_c': 'H2O'}, {'Rtotal2_c': 'CO2R2'}, {'M00774_c': 'C52H91N2O23P2R5'}]</t>
+          <t>[{'M02837_e': 'C36H58O3'}, {'h2o_e': 'H2O'}, {'hdca_e': 'C16H31O2'}, {'retinol_e': 'C20H30O'}]</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>{'H': -2.0, 'R': 2.0, 'charge': -2.0}</t>
+          <t>{'charge': -1, 'H': 1, 'O': -1}</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>HMR_9561</t>
+          <t>HMR_9577</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>M02837_e + h2o_e --&gt; hdca_e + retinol_e</t>
+          <t>M00196_c + atp_c --&gt; M02742_c + adp_c</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>[{'M02837_e': 'C36H58O3'}, {'h2o_e': 'H2O'}, {'hdca_e': 'C16H31O2'}, {'retinol_e': 'C20H30O'}]</t>
+          <t>[{'M00196_c': 'C2H4NO2R'}, {'atp_c': 'C10H12N5O13P3'}, {'M02742_c': 'X'}, {'adp_c': 'C10H12N5O10P2'}]</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': 1, 'O': -1}</t>
+          <t>{'C': -2, 'H': -4, 'N': -1, 'O': -5, 'R': -1, 'charge': 1, 'P': -1, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>HMR_9577</t>
+          <t>HMR_9578</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>M00196_c + atp_c --&gt; M02742_c + adp_c</t>
+          <t>M02742_c + h2o_c --&gt; M00196_c + pi_c</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>[{'M00196_c': 'C2H4NO2R'}, {'atp_c': 'C10H12N5O13P3'}, {'M02742_c': 'X'}, {'adp_c': 'C10H12N5O10P2'}]</t>
+          <t>[{'M02742_c': 'X'}, {'h2o_c': 'H2O'}, {'M00196_c': 'C2H4NO2R'}, {'pi_c': 'HO4P'}]</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>{'C': -2, 'H': -4, 'N': -1, 'O': -5, 'R': -1, 'charge': 1, 'P': -1, 'X': 1}</t>
+          <t>{'X': -1, 'charge': -2, 'H': 3, 'O': 5, 'C': 2, 'N': 1, 'R': 1, 'P': 1}</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>HMR_9578</t>
+          <t>HMR_9579</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>M02742_c + h2o_c --&gt; M00196_c + pi_c</t>
+          <t>M02801_c + atp_c --&gt; M02656_c + adp_c</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>[{'M02742_c': 'X'}, {'h2o_c': 'H2O'}, {'M00196_c': 'C2H4NO2R'}, {'pi_c': 'HO4P'}]</t>
+          <t>[{'M02801_c': 'X'}, {'atp_c': 'C10H12N5O13P3'}, {'M02656_c': 'X'}, {'adp_c': 'C10H12N5O10P2'}]</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>{'X': -1, 'charge': -2, 'H': 3, 'O': 5, 'C': 2, 'N': 1, 'R': 1, 'P': 1}</t>
+          <t>{'charge': 1, 'O': -3, 'P': -1}</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>HMR_9579</t>
+          <t>HMR_9806</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>M02801_c + atp_c --&gt; M02656_c + adp_c</t>
+          <t>M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>[{'M02801_c': 'X'}, {'atp_c': 'C10H12N5O13P3'}, {'M02656_c': 'X'}, {'adp_c': 'C10H12N5O10P2'}]</t>
+          <t>[{'M03169_c': 'X'}, {'gthrd_c': 'C10H16N3O6S'}, {'M03170_c': 'X'}, {'gthox_c': 'C20H30N6O12S2'}]</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'O': -3, 'P': -1}</t>
+          <t>{'charge': -1, 'C': 10, 'H': 14, 'N': 3, 'O': 6, 'S': 1}</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>HMR_9806</t>
+          <t>INDOXYLF</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
+          <t>h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>[{'M03169_c': 'X'}, {'gthrd_c': 'C10H16N3O6S'}, {'M03170_c': 'X'}, {'gthox_c': 'C20H30N6O12S2'}]</t>
+          <t>[{'h2o_c': 'H2O'}, {'indole_c': 'C8H7N'}, {'nadp_c': 'C21H25N7O17P3'}, {'h_c': 'H'}, {'indoxyl_c': 'C8H6NO'}, {'nadph_c': 'C21H26N7O17P3'}]</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': 10, 'H': 14, 'N': 3, 'O': 6, 'S': 1}</t>
+          <t>{'charge': 1.0}</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>INDOXYLF</t>
+          <t>LIDOMO</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
+          <t>h_c + lido_c + nadph_c + o2_c &lt;=&gt; 3hlido_r + h2o_c + nadp_c</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>[{'h2o_c': 'H2O'}, {'indole_c': 'C8H7N'}, {'nadp_c': 'C21H25N7O17P3'}, {'h_c': 'H'}, {'indoxyl_c': 'C8H6NO'}, {'nadph_c': 'C21H26N7O17P3'}]</t>
+          <t>[{'h_c': 'H'}, {'o2_c': 'O2'}, {'nadph_c': 'C21H26N7O17P3'}, {'lido_c': 'C14H23N2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'3hlido_r': 'C14H23N2O2'}, {'h2o_c': 'H2O'}]</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>{'charge': 1.0}</t>
+          <t>{'charge': -1}</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>LIDOMO</t>
+          <t>LIPB</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>h_c + lido_c + nadph_c + o2_c &lt;=&gt; 3hlido_r + h2o_c + nadp_c</t>
+          <t>ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'o2_c': 'O2'}, {'nadph_c': 'C21H26N7O17P3'}, {'lido_c': 'C14H23N2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'3hlido_r': 'C14H23N2O2'}, {'h2o_c': 'H2O'}]</t>
+          <t>[{'ApoACP_m': 'X'}, {'lipACP_m': 'C19H33N2O8PRS3'}, {'ACP_m': 'C11H21N2O7PRS'}, {'CE2102_m': 'C14H26N2O3S2'}]</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>{'charge': -1}</t>
+          <t>{'X': -1, 'C': 6, 'H': 14, 'N': 2, 'O': 2, 'charge': -1}</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>LIPB</t>
+          <t>LIPS</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
+          <t>2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>[{'ApoACP_m': 'X'}, {'lipACP_m': 'C19H33N2O8PRS3'}, {'ACP_m': 'C11H21N2O7PRS'}, {'CE2102_m': 'C14H26N2O3S2'}]</t>
+          <t>[{'amet_m': 'C15H23N6O5S'}, {'ocACP_m': 'C19H35N2O8PRS'}, {'so3_m': 'O3S'}, {'dad_5_m': 'C10H13N5O3'}, {'lipACP_m': 'C19H33N2O8PRS3'}, {'met_L_m': 'C5H11NO2S'}]</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>{'X': -1, 'C': 6, 'H': 14, 'N': 2, 'O': 2, 'charge': -1}</t>
+          <t>{'charge': 3.0, 'O': -6.0}</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>LIPS</t>
+          <t>r0023</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
+          <t>2.0 HC00617_c + nadh_c --&gt; 2.0 HC00619_c + h_c + nad_c</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>[{'amet_m': 'C15H23N6O5S'}, {'ocACP_m': 'C19H35N2O8PRS'}, {'so3_m': 'O3S'}, {'dad_5_m': 'C10H13N5O3'}, {'lipACP_m': 'C19H33N2O8PRS3'}, {'met_L_m': 'C5H11NO2S'}]</t>
+          <t>[{'HC00617_c': 'X'}, {'nadh_c': 'C21H27N7O14P2'}, {'HC00619_c': 'X'}, {'h_c': 'H'}, {'nad_c': 'C21H26N7O14P2'}]</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>{'charge': 3.0, 'O': -6.0}</t>
+          <t>{'charge': 2.0}</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>r0023</t>
+          <t>r0318</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2.0 HC00617_c + nadh_c --&gt; 2.0 HC00619_c + h_c + nad_c</t>
+          <t>atp_c + h_c + ppa_c --&gt; ppad_c + ppi_c</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>[{'HC00617_c': 'X'}, {'nadh_c': 'C21H27N7O14P2'}, {'HC00619_c': 'X'}, {'h_c': 'H'}, {'nad_c': 'C21H26N7O14P2'}]</t>
+          <t>[{'h_c': 'H'}, {'atp_c': 'C10H12N5O13P3'}, {'ppa_c': 'C3H5O2'}, {'ppi_c': 'HO7P2'}, {'ppad_c': 'C13H18N5O8P'}]</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>{'charge': 2.0}</t>
+          <t>{'charge': 1, 'H': 1}</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>r0318</t>
+          <t>r0319</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>atp_c + h_c + ppa_c --&gt; ppad_c + ppi_c</t>
+          <t>atp_m + h_m + ppa_m --&gt; ppad_m + ppi_m</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'atp_c': 'C10H12N5O13P3'}, {'ppa_c': 'C3H5O2'}, {'ppi_c': 'HO7P2'}, {'ppad_c': 'C13H18N5O8P'}]</t>
+          <t>[{'h_m': 'H'}, {'ppa_m': 'C3H5O2'}, {'atp_m': 'C10H12N5O13P3'}, {'ppi_m': 'HO7P2'}, {'ppad_m': 'C13H18N5O8P'}]</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -13526,83 +13526,83 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>r0319</t>
+          <t>r0380</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>atp_m + h_m + ppa_m --&gt; ppad_m + ppi_m</t>
+          <t>HC01441_e + h2o_e &lt;=&gt; lcts_e + pi_e</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>[{'h_m': 'H'}, {'ppa_m': 'C3H5O2'}, {'atp_m': 'C10H12N5O13P3'}, {'ppi_m': 'HO7P2'}, {'ppad_m': 'C13H18N5O8P'}]</t>
+          <t>[{'h2o_e': 'H2O'}, {'HC01441_e': 'C12H21O14P'}, {'lcts_e': 'C12H22O11'}, {'pi_e': 'HO4P'}]</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'H': 1}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>r0380</t>
+          <t>r0400</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>HC01441_e + h2o_e &lt;=&gt; lcts_e + pi_e</t>
+          <t>3.0 acnam_c + h2o_c + nad_c + o2_c --&gt; 3.0 HC01115_c + h_c + nadh_c</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>[{'h2o_e': 'H2O'}, {'HC01441_e': 'C12H21O14P'}, {'lcts_e': 'C12H22O11'}, {'pi_e': 'HO4P'}]</t>
+          <t>[{'o2_c': 'O2'}, {'nad_c': 'C21H26N7O14P2'}, {'h2o_c': 'H2O'}, {'acnam_c': 'C11H18NO9'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}, {'HC01115_c': 'C11H19NO10'}]</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'charge': 3.0, 'H': 3.0}</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>r0400</t>
+          <t>r0510</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>3.0 acnam_c + h2o_c + nad_c + o2_c --&gt; 3.0 HC01115_c + h_c + nadh_c</t>
+          <t>2.0 HC00619_c + 2.0 h_c + o2_c + pmtcoa_c --&gt; 2.0 HC00617_c + 2.0 h2o_c + hdcoa_c</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>[{'o2_c': 'O2'}, {'nad_c': 'C21H26N7O14P2'}, {'h2o_c': 'H2O'}, {'acnam_c': 'C11H18NO9'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}, {'HC01115_c': 'C11H19NO10'}]</t>
+          <t>[{'HC00619_c': 'X'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'pmtcoa_c': 'C37H62N7O17P3S'}, {'HC00617_c': 'X'}, {'h2o_c': 'H2O'}, {'hdcoa_c': 'C37H60N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>{'charge': 3.0, 'H': 3.0}</t>
+          <t>{'charge': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>r0510</t>
+          <t>r0511</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2.0 HC00619_c + 2.0 h_c + o2_c + pmtcoa_c --&gt; 2.0 HC00617_c + 2.0 h2o_c + hdcoa_c</t>
+          <t>2.0 HC00619_c + 2.0 h_c + o2_c + stcoa_c --&gt; 2.0 HC00617_c + 2.0 h2o_c + odecoa_c</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>[{'HC00619_c': 'X'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'pmtcoa_c': 'C37H62N7O17P3S'}, {'HC00617_c': 'X'}, {'h2o_c': 'H2O'}, {'hdcoa_c': 'C37H60N7O17P3S'}]</t>
+          <t>[{'HC00619_c': 'X'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'stcoa_c': 'C39H66N7O17P3S'}, {'HC00617_c': 'X'}, {'h2o_c': 'H2O'}, {'odecoa_c': 'C39H64N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -13614,83 +13614,83 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>r0511</t>
+          <t>r0800</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2.0 HC00619_c + 2.0 h_c + o2_c + stcoa_c --&gt; 2.0 HC00617_c + 2.0 h2o_c + odecoa_c</t>
+          <t>7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>[{'HC00619_c': 'X'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'stcoa_c': 'C39H66N7O17P3S'}, {'HC00617_c': 'X'}, {'h2o_c': 'H2O'}, {'odecoa_c': 'C39H64N7O17P3S'}]</t>
+          <t>[{'h2o_c': 'H2O'}, {'amet_c': 'C15H23N6O5S'}, {'h_c': 'H'}, {'co2_c': 'CO2'}, {'ahcys_c': 'C14H20N6O5S'}, {'HC01797_c': 'X'}]</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>{'charge': -2.0}</t>
+          <t>{'H': -18.0, 'C': -6.0, 'X': 6.0}</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>r0800</t>
+          <t>r1135</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
+          <t>4mzym_int2_r + 3.0 h_r + nadp_r &lt;=&gt; HC02110_r + nadph_r</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>[{'h2o_c': 'H2O'}, {'amet_c': 'C15H23N6O5S'}, {'h_c': 'H'}, {'co2_c': 'CO2'}, {'ahcys_c': 'C14H20N6O5S'}, {'HC01797_c': 'X'}]</t>
+          <t>[{'4mzym_int2_r': 'C28H44O'}, {'h_r': 'H'}, {'nadp_r': 'C21H25N7O17P3'}, {'HC02110_r': 'C28H46O'}, {'nadph_r': 'C21H26N7O17P3'}]</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>{'H': -18.0, 'C': -6.0, 'X': 6.0}</t>
+          <t>{'charge': -4.0}</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>r1135</t>
+          <t>r1319</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>4mzym_int2_r + 3.0 h_r + nadp_r &lt;=&gt; HC02110_r + nadph_r</t>
+          <t>atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>[{'4mzym_int2_r': 'C28H44O'}, {'h_r': 'H'}, {'nadp_r': 'C21H25N7O17P3'}, {'HC02110_r': 'C28H46O'}, {'nadph_r': 'C21H26N7O17P3'}]</t>
+          <t>[{'h2o_c': 'H2O'}, {'atp_c': 'C10H12N5O13P3'}, {'adp_c': 'C10H12N5O10P2'}, {'pi_c': 'HO4P'}, {'HC02111_c': 'X'}]</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>{'charge': -4.0}</t>
+          <t>{'charge': -1, 'H': -1, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>r1319</t>
+          <t>r1320</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
+          <t>atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>[{'h2o_c': 'H2O'}, {'atp_c': 'C10H12N5O13P3'}, {'adp_c': 'C10H12N5O10P2'}, {'pi_c': 'HO4P'}, {'HC02111_c': 'X'}]</t>
+          <t>[{'h2o_m': 'H2O'}, {'atp_m': 'C10H12N5O13P3'}, {'adp_m': 'C10H12N5O10P2'}, {'pi_m': 'HO4P'}, {'HC02111_m': 'X'}]</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -13702,39 +13702,39 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>r1320</t>
+          <t>r1321</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
+          <t>nadh_r &lt;=&gt; HC02112_r + nad_r</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>[{'h2o_m': 'H2O'}, {'atp_m': 'C10H12N5O13P3'}, {'adp_m': 'C10H12N5O10P2'}, {'pi_m': 'HO4P'}, {'HC02111_m': 'X'}]</t>
+          <t>[{'nadh_r': 'C21H27N7O14P2'}, {'nad_r': 'C21H26N7O14P2'}, {'HC02112_r': 'X'}]</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1, 'X': 1}</t>
+          <t>{'charge': 1, 'H': -1, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>r1321</t>
+          <t>r1322</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>nadh_r &lt;=&gt; HC02112_r + nad_r</t>
+          <t>nadh_c &lt;=&gt; HC02112_c + nad_c</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>[{'nadh_r': 'C21H27N7O14P2'}, {'nad_r': 'C21H26N7O14P2'}, {'HC02112_r': 'X'}]</t>
+          <t>[{'nadh_c': 'C21H27N7O14P2'}, {'nad_c': 'C21H26N7O14P2'}, {'HC02112_c': 'X'}]</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -13746,17 +13746,17 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>r1322</t>
+          <t>r1323</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>nadh_c &lt;=&gt; HC02112_c + nad_c</t>
+          <t>nadh_m &lt;=&gt; HC02112_m + nad_m</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>[{'nadh_c': 'C21H27N7O14P2'}, {'nad_c': 'C21H26N7O14P2'}, {'HC02112_c': 'X'}]</t>
+          <t>[{'nadh_m': 'C21H27N7O14P2'}, {'nad_m': 'C21H26N7O14P2'}, {'HC02112_m': 'X'}]</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -13768,17 +13768,17 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>r1323</t>
+          <t>r1324</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>nadh_m &lt;=&gt; HC02112_m + nad_m</t>
+          <t>nadh_x &lt;=&gt; HC02112_x + nad_x</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>[{'nadh_m': 'C21H27N7O14P2'}, {'nad_m': 'C21H26N7O14P2'}, {'HC02112_m': 'X'}]</t>
+          <t>[{'nadh_x': 'C21H27N7O14P2'}, {'nad_x': 'C21H26N7O14P2'}, {'HC02112_x': 'X'}]</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -13790,17 +13790,17 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>r1324</t>
+          <t>r1325</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>nadh_x &lt;=&gt; HC02112_x + nad_x</t>
+          <t>nadph_r &lt;=&gt; HC02113_r + nadp_r</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>[{'nadh_x': 'C21H27N7O14P2'}, {'nad_x': 'C21H26N7O14P2'}, {'HC02112_x': 'X'}]</t>
+          <t>[{'nadph_r': 'C21H26N7O17P3'}, {'nadp_r': 'C21H25N7O17P3'}, {'HC02113_r': 'X'}]</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -13812,17 +13812,17 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>r1325</t>
+          <t>r1326</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>nadph_r &lt;=&gt; HC02113_r + nadp_r</t>
+          <t>nadph_c &lt;=&gt; HC02113_c + nadp_c</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>[{'nadph_r': 'C21H26N7O17P3'}, {'nadp_r': 'C21H25N7O17P3'}, {'HC02113_r': 'X'}]</t>
+          <t>[{'nadph_c': 'C21H26N7O17P3'}, {'nadp_c': 'C21H25N7O17P3'}, {'HC02113_c': 'X'}]</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -13834,17 +13834,17 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>r1326</t>
+          <t>r1327</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>nadph_c &lt;=&gt; HC02113_c + nadp_c</t>
+          <t>nadph_m &lt;=&gt; HC02113_m + nadp_m</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>[{'nadph_c': 'C21H26N7O17P3'}, {'nadp_c': 'C21H25N7O17P3'}, {'HC02113_c': 'X'}]</t>
+          <t>[{'nadph_m': 'C21H26N7O17P3'}, {'nadp_m': 'C21H25N7O17P3'}, {'HC02113_m': 'X'}]</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -13856,17 +13856,17 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>r1327</t>
+          <t>r1328</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>nadph_m &lt;=&gt; HC02113_m + nadp_m</t>
+          <t>nadph_x &lt;=&gt; HC02113_x + nadp_x</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>[{'nadph_m': 'C21H26N7O17P3'}, {'nadp_m': 'C21H25N7O17P3'}, {'HC02113_m': 'X'}]</t>
+          <t>[{'nadph_x': 'C21H26N7O17P3'}, {'nadp_x': 'C21H25N7O17P3'}, {'HC02113_x': 'X'}]</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -13878,149 +13878,149 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>r1328</t>
+          <t>r1329</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>nadph_x &lt;=&gt; HC02113_x + nadp_x</t>
+          <t>fadh2_c &lt;=&gt; HC02114_c + fad_c</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>[{'nadph_x': 'C21H26N7O17P3'}, {'nadp_x': 'C21H25N7O17P3'}, {'HC02113_x': 'X'}]</t>
+          <t>[{'fadh2_c': 'C27H33N9O15P2'}, {'fad_c': 'C27H31N9O15P2'}, {'HC02114_c': 'X'}]</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'H': -1, 'X': 1}</t>
+          <t>{'H': -2, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>r1329</t>
+          <t>r1332</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>fadh2_c &lt;=&gt; HC02114_c + fad_c</t>
+          <t>paps_c &lt;=&gt; HC02116_c + pap_c</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>[{'fadh2_c': 'C27H33N9O15P2'}, {'fad_c': 'C27H31N9O15P2'}, {'HC02114_c': 'X'}]</t>
+          <t>[{'paps_c': 'C10H11N5O13P2S'}, {'pap_c': 'C10H11N5O10P2'}, {'HC02116_c': 'X'}]</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>{'H': -2, 'X': 1}</t>
+          <t>{'O': -3, 'S': -1, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>r1332</t>
+          <t>r1411</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>paps_c &lt;=&gt; HC02116_c + pap_c</t>
+          <t>HC02161_e + h2o_e &lt;=&gt; HC02160_e + gal_e</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>[{'paps_c': 'C10H11N5O13P2S'}, {'pap_c': 'C10H11N5O10P2'}, {'HC02116_c': 'X'}]</t>
+          <t>[{'h2o_e': 'H2O'}, {'HC02161_e': 'X'}, {'gal_e': 'C6H12O6'}, {'HC02160_e': 'X'}]</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>{'O': -3, 'S': -1, 'X': 1}</t>
+          <t>{'H': 10, 'O': 5, 'C': 6}</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>r1411</t>
+          <t>r1453</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>HC02161_e + h2o_e &lt;=&gt; HC02160_e + gal_e</t>
+          <t>pro_L_m + q10h2_m &lt;=&gt; 1pyr5c_m + 5.0 h_m + q10_m</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>[{'h2o_e': 'H2O'}, {'HC02161_e': 'X'}, {'gal_e': 'C6H12O6'}, {'HC02160_e': 'X'}]</t>
+          <t>[{'pro_L_m': 'C5H9NO2'}, {'q10h2_m': 'C59H92O4'}, {'1pyr5c_m': 'C5H6NO2'}, {'h_m': 'H'}, {'q10_m': 'C59H90O4'}]</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>{'H': 10, 'O': 5, 'C': 6}</t>
+          <t>{'charge': 4.0}</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>r1453</t>
+          <t>r1479</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>pro_L_m + q10h2_m &lt;=&gt; 1pyr5c_m + 5.0 h_m + q10_m</t>
+          <t>CE0692_m + coa_m --&gt; accoa_m + dd3coa_m</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>[{'pro_L_m': 'C5H9NO2'}, {'q10h2_m': 'C59H92O4'}, {'1pyr5c_m': 'C5H6NO2'}, {'h_m': 'H'}, {'q10_m': 'C59H90O4'}]</t>
+          <t>[{'CE0692_m': 'C33H50N7O18P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'accoa_m': 'C23H34N7O17P3S'}, {'dd3coa_m': 'C33H52N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>{'charge': 4.0}</t>
+          <t>{'C': 2, 'H': 4}</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>r1479</t>
+          <t>RE2864C</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>CE0692_m + coa_m --&gt; accoa_m + dd3coa_m</t>
+          <t>CE6444_c + 2.0 h_c &lt;=&gt; CE6453_c + h2o_c</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>[{'CE0692_m': 'C33H50N7O18P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'accoa_m': 'C23H34N7O17P3S'}, {'dd3coa_m': 'C33H52N7O17P3S'}]</t>
+          <t>[{'CE6444_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6453_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>{'C': 2, 'H': 4}</t>
+          <t>{'charge': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>RE2864C</t>
+          <t>RE2865C</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>CE6444_c + 2.0 h_c &lt;=&gt; CE6453_c + h2o_c</t>
+          <t>CE6444_c + 2.0 h_c &lt;=&gt; CE6452_c + h2o_c</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>[{'CE6444_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6453_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
+          <t>[{'CE6444_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6452_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -14032,17 +14032,17 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>RE2865C</t>
+          <t>RE2875C</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>CE6444_c + 2.0 h_c &lt;=&gt; CE6452_c + h2o_c</t>
+          <t>CE6449_c + 2.0 h_c &lt;=&gt; CE6463_c + h2o_c</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>[{'CE6444_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6452_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
+          <t>[{'CE6449_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6463_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -14054,17 +14054,17 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>RE2875C</t>
+          <t>RE2876C</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>CE6449_c + 2.0 h_c &lt;=&gt; CE6463_c + h2o_c</t>
+          <t>CE6450_c + 2.0 h_c &lt;=&gt; CE6464_c + h2o_c</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>[{'CE6449_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6463_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
+          <t>[{'CE6450_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6464_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -14076,17 +14076,17 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>RE2876C</t>
+          <t>RE2877C</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>CE6450_c + 2.0 h_c &lt;=&gt; CE6464_c + h2o_c</t>
+          <t>CE6450_c + 2.0 h_c &lt;=&gt; CE6465_c + h2o_c</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>[{'CE6450_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6464_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
+          <t>[{'CE6450_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6465_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -14098,347 +14098,347 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>RE2877C</t>
+          <t>UDPGDC</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>CE6450_c + 2.0 h_c &lt;=&gt; CE6465_c + h2o_c</t>
+          <t>nad_c + udpglcur_c &lt;=&gt; co2_c + nadh_c + udpLa4o_c</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>[{'CE6450_c': 'C22H31O6'}, {'h_c': 'H'}, {'CE6465_c': 'C22H31O5'}, {'h2o_c': 'H2O'}]</t>
+          <t>[{'nad_c': 'C21H26N7O14P2'}, {'udpglcur_c': 'C15H19N2O18P2'}, {'co2_c': 'CO2'}, {'nadh_c': 'C21H27N7O14P2'}, {'udpLa4o_c': 'C14H18N2O16P2'}]</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>{'charge': -2.0}</t>
+          <t>{'charge': 2}</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>UDPGDC</t>
+          <t>r0366</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>nad_c + udpglcur_c &lt;=&gt; co2_c + nadh_c + udpLa4o_c</t>
+          <t>ACP_c + h2o_c --&gt; ApoACP_c + pan4p_c</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>[{'nad_c': 'C21H26N7O14P2'}, {'udpglcur_c': 'C15H19N2O18P2'}, {'co2_c': 'CO2'}, {'nadh_c': 'C21H27N7O14P2'}, {'udpLa4o_c': 'C14H18N2O16P2'}]</t>
+          <t>[{'h2o_c': 'H2O'}, {'ACP_c': 'C11H21N2O7PRS'}, {'pan4p_c': 'C11H21N2O7PS'}, {'ApoACP_c': 'X'}]</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>{'charge': 2}</t>
+          <t>{'charge': -1, 'H': -2, 'O': -1, 'R': -1, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>r0366</t>
+          <t>RE3261C</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>ACP_c + h2o_c --&gt; ApoACP_c + pan4p_c</t>
+          <t>CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>[{'h2o_c': 'H2O'}, {'ACP_c': 'C11H21N2O7PRS'}, {'pan4p_c': 'C11H21N2O7PS'}, {'ApoACP_c': 'X'}]</t>
+          <t>[{'CE2047_c': 'C18H33O4'}, {'udpglcur_c': 'C15H19N2O18P2'}, {'CE2303_c': 'C24H40O10'}, {'h_c': 'H'}, {'udp_c': 'C9H11N2O12P2'}]</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -2, 'O': -1, 'R': -1, 'X': 1}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>RE3261C</t>
+          <t>RE3417C</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
+          <t>CE6504_c &lt;=&gt; C08261_c + CE6506_c + h_c</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>[{'CE2047_c': 'C18H33O4'}, {'udpglcur_c': 'C15H19N2O18P2'}, {'CE2303_c': 'C24H40O10'}, {'h_c': 'H'}, {'udp_c': 'C9H11N2O12P2'}]</t>
+          <t>[{'CE6504_c': 'C18H31O6'}, {'C08261_c': 'C9H12O4'}, {'CE6506_c': 'C9H16O2'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'H': -2}</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>RE3417C</t>
+          <t>RE3420C</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>CE6504_c &lt;=&gt; C08261_c + CE6506_c + h_c</t>
+          <t>CE6504_c &lt;=&gt; C08261_c + CE2577_c + 3.0 h_c</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>[{'CE6504_c': 'C18H31O6'}, {'C08261_c': 'C9H12O4'}, {'CE6506_c': 'C9H16O2'}, {'h_c': 'H'}]</t>
+          <t>[{'CE6504_c': 'C18H31O6'}, {'C08261_c': 'C9H12O4'}, {'CE2577_c': 'C9H14O2'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>{'H': -2}</t>
+          <t>{'charge': 2.0, 'H': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>RE3420C</t>
+          <t>HMR_6397</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>CE6504_c &lt;=&gt; C08261_c + CE2577_c + 3.0 h_c</t>
+          <t>h_c + lipoate_c + nadh_c &lt;=&gt; dhlam_c + nad_c</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>[{'CE6504_c': 'C18H31O6'}, {'C08261_c': 'C9H12O4'}, {'CE2577_c': 'C9H14O2'}, {'h_c': 'H'}]</t>
+          <t>[{'h_c': 'H'}, {'lipoate_c': 'C8H14O2S2'}, {'nadh_c': 'C21H27N7O14P2'}, {'dhlam_c': 'C8H17NOS2'}, {'nad_c': 'C21H26N7O14P2'}]</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>{'charge': 2.0, 'H': -2.0}</t>
+          <t>{'charge': 1, 'H': 1, 'O': -1, 'N': 1}</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>HMR_6397</t>
+          <t>HMR_6399</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>h_c + lipoate_c + nadh_c &lt;=&gt; dhlam_c + nad_c</t>
+          <t>HC00004_c + lipamp_c --&gt; M00209_c + amp_c</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'lipoate_c': 'C8H14O2S2'}, {'nadh_c': 'C21H27N7O14P2'}, {'dhlam_c': 'C8H17NOS2'}, {'nad_c': 'C21H26N7O14P2'}]</t>
+          <t>[{'lipamp_c': 'C18H25N5O8PS2'}, {'HC00004_c': 'X'}, {'M00209_c': 'C8H14NOS2R'}, {'amp_c': 'C10H12N5O7P'}]</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'H': 1, 'O': -1, 'N': 1}</t>
+          <t>{'H': 1, 'N': 1, 'charge': -2, 'X': -1, 'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>HMR_6399</t>
+          <t>HMR_6400</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>HC00004_c + lipamp_c --&gt; M00209_c + amp_c</t>
+          <t>2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>[{'lipamp_c': 'C18H25N5O8PS2'}, {'HC00004_c': 'X'}, {'M00209_c': 'C8H14NOS2R'}, {'amp_c': 'C10H12N5O7P'}]</t>
+          <t>[{'ocACP_c': 'C19H35N2O8PRS'}, {'amet_c': 'C15H23N6O5S'}, {'h_c': 'H'}, {'paps_c': 'C10H11N5O13P2S'}, {'lipACP_c': 'C8H13OS3R'}, {'dad_5_c': 'C10H13N5O3'}, {'met_L_c': 'C5H11NO2S'}, {'pap_c': 'C10H11N5O10P2'}]</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>{'H': 1, 'N': 1, 'charge': -2, 'X': -1, 'R': 1}</t>
+          <t>{'charge': -3.0, 'C': -11.0, 'H': -22.0, 'N': -2.0, 'O': -13.0, 'P': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>HMR_6400</t>
+          <t>HMR_6401</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
+          <t>HC00004_c + lipACP_c --&gt; ACP_c + M00209_c</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>[{'ocACP_c': 'C19H35N2O8PRS'}, {'amet_c': 'C15H23N6O5S'}, {'h_c': 'H'}, {'paps_c': 'C10H11N5O13P2S'}, {'lipACP_c': 'C8H13OS3R'}, {'dad_5_c': 'C10H13N5O3'}, {'met_L_c': 'C5H11NO2S'}, {'pap_c': 'C10H11N5O10P2'}]</t>
+          <t>[{'HC00004_c': 'X'}, {'lipACP_c': 'C8H13OS3R'}, {'ACP_c': 'C11H21N2O7PRS'}, {'M00209_c': 'C8H14NOS2R'}]</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>{'charge': -3.0, 'C': -11.0, 'H': -22.0, 'N': -2.0, 'O': -13.0, 'P': -1.0}</t>
+          <t>{'charge': -1, 'X': -1, 'C': 11, 'H': 22, 'O': 7, 'R': 1, 'N': 3, 'P': 1}</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>HMR_6401</t>
+          <t>HMR_6402</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>HC00004_c + lipACP_c --&gt; ACP_c + M00209_c</t>
+          <t>HC00004_c + ocACP_c --&gt; ACP_c + M00210_c</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>[{'HC00004_c': 'X'}, {'lipACP_c': 'C8H13OS3R'}, {'ACP_c': 'C11H21N2O7PRS'}, {'M00209_c': 'C8H14NOS2R'}]</t>
+          <t>[{'HC00004_c': 'X'}, {'ocACP_c': 'C19H35N2O8PRS'}, {'ACP_c': 'C11H21N2O7PRS'}, {'M00210_c': 'C8H16NOR'}]</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'X': -1, 'C': 11, 'H': 22, 'O': 7, 'R': 1, 'N': 3, 'P': 1}</t>
+          <t>{'X': -1, 'H': 2, 'N': 1, 'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>HMR_6402</t>
+          <t>HMR_6403</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>HC00004_c + ocACP_c --&gt; ACP_c + M00210_c</t>
+          <t>M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>[{'HC00004_c': 'X'}, {'ocACP_c': 'C19H35N2O8PRS'}, {'ACP_c': 'C11H21N2O7PRS'}, {'M00210_c': 'C8H16NOR'}]</t>
+          <t>[{'M00210_c': 'C8H16NOR'}, {'amet_c': 'C15H23N6O5S'}, {'h_c': 'H'}, {'paps_c': 'C10H11N5O13P2S'}, {'M00209_c': 'C8H14NOS2R'}, {'dad_5_c': 'C10H13N5O3'}, {'met_L_c': 'C5H11NO2S'}, {'pap_c': 'C10H11N5O10P2'}]</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>{'X': -1, 'H': 2, 'N': 1, 'R': 1}</t>
+          <t>{'H': -2.0, 'O': -6.0, 'charge': -4.0}</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>HMR_6403</t>
+          <t>RE2459C</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
+          <t>CE2102_c + h2o_c &lt;=&gt; lipoate_c + lys_L_c</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>[{'M00210_c': 'C8H16NOR'}, {'amet_c': 'C15H23N6O5S'}, {'h_c': 'H'}, {'paps_c': 'C10H11N5O13P2S'}, {'M00209_c': 'C8H14NOS2R'}, {'dad_5_c': 'C10H13N5O3'}, {'met_L_c': 'C5H11NO2S'}, {'pap_c': 'C10H11N5O10P2'}]</t>
+          <t>[{'CE2102_c': 'C14H26N2O3S2'}, {'h2o_c': 'H2O'}, {'lipoate_c': 'C8H14O2S2'}, {'lys_L_c': 'C6H15N2O2'}]</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>{'H': -2.0, 'O': -6.0, 'charge': -4.0}</t>
+          <t>{'H': 1}</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>RE2459C</t>
+          <t>FNOR</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>CE2102_c + h2o_c &lt;=&gt; lipoate_c + lys_L_c</t>
+          <t>2.0 fdxrd_c + h_c + nadp_c &lt;=&gt; 2.0 fdxo_2_2_c + nadph_c</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>[{'CE2102_c': 'C14H26N2O3S2'}, {'h2o_c': 'H2O'}, {'lipoate_c': 'C8H14O2S2'}, {'lys_L_c': 'C6H15N2O2'}]</t>
+          <t>[{'h_c': 'H'}, {'nadp_c': 'C21H25N7O17P3'}, {'fdxrd_c': 'Fe2S2X'}, {'nadph_c': 'C21H26N7O17P3'}, {'fdxo_2_2_c': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>{'H': 1}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>FNOR</t>
+          <t>HMR_7623</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2.0 fdxrd_c + h_c + nadp_c &lt;=&gt; 2.0 fdxo_2_2_c + nadph_c</t>
+          <t>M00197_c + nad_c --&gt; M00215_c + h_c + ncam_c</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'nadp_c': 'C21H25N7O17P3'}, {'fdxrd_c': 'Fe2S2X'}, {'nadph_c': 'C21H26N7O17P3'}, {'fdxo_2_2_c': 'Fe2S2X'}]</t>
+          <t>[{'M00197_c': 'C6H12N4O'}, {'nad_c': 'C21H26N7O14P2'}, {'M00215_c': 'C22H34N10O15P2R2'}, {'h_c': 'H'}, {'ncam_c': 'C6H6N2O'}]</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'charge': 2, 'C': 1, 'H': 3, 'N': 1, 'O': 1, 'R': 2}</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>HMR_7623</t>
+          <t>RE2888C</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>M00197_c + nad_c --&gt; M00215_c + h_c + ncam_c</t>
+          <t>h2o2_c + urate_c &lt;=&gt; CE0074_c + urea_c</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>[{'M00197_c': 'C6H12N4O'}, {'nad_c': 'C21H26N7O14P2'}, {'M00215_c': 'C22H34N10O15P2R2'}, {'h_c': 'H'}, {'ncam_c': 'C6H6N2O'}]</t>
+          <t>[{'h2o2_c': 'H2O2'}, {'urate_c': 'C5H4N4O3'}, {'CE0074_c': 'C4N2O4'}, {'urea_c': 'CH4N2O'}]</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>{'charge': 2, 'C': 1, 'H': 3, 'N': 1, 'O': 1, 'R': 2}</t>
+          <t>{'H': -2}</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>RE2888C</t>
+          <t>RE2888E</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>h2o2_c + urate_c &lt;=&gt; CE0074_c + urea_c</t>
+          <t>h2o2_e + urate_e &lt;=&gt; CE0074_e + urea_e</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>[{'h2o2_c': 'H2O2'}, {'urate_c': 'C5H4N4O3'}, {'CE0074_c': 'C4N2O4'}, {'urea_c': 'CH4N2O'}]</t>
+          <t>[{'h2o2_e': 'H2O2'}, {'urate_e': 'C5H4N4O3'}, {'CE0074_e': 'C4N2O4'}, {'urea_e': 'CH4N2O'}]</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -14450,39 +14450,39 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>RE2888E</t>
+          <t>ARTFR11</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>h2o2_e + urate_e &lt;=&gt; CE0074_e + urea_e</t>
+          <t>pmtcoa_c --&gt; R1coa_cho_c</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>[{'h2o2_e': 'H2O2'}, {'urate_e': 'C5H4N4O3'}, {'CE0074_e': 'C4N2O4'}, {'urea_e': 'CH4N2O'}]</t>
+          <t>[{'pmtcoa_c': 'C37H62N7O17P3S'}, {'R1coa_cho_c': 'RCO2C21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>{'H': -2}</t>
+          <t>{'C': -15, 'H': -31, 'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>ARTFR11</t>
+          <t>ARTFR12</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>pmtcoa_c --&gt; R1coa_cho_c</t>
+          <t>fadh2_m + hdcoa_c --&gt; R1coa_cho_c + fad_m</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>[{'pmtcoa_c': 'C37H62N7O17P3S'}, {'R1coa_cho_c': 'RCO2C21H31N7O15P3S'}]</t>
+          <t>[{'fadh2_m': 'C27H33N9O15P2'}, {'hdcoa_c': 'C37H60N7O17P3S'}, {'R1coa_cho_c': 'RCO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -14494,61 +14494,61 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>ARTFR12</t>
+          <t>ARTFR13</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>fadh2_m + hdcoa_c --&gt; R1coa_cho_c + fad_m</t>
+          <t>tdcoa_c --&gt; 0.875 R1coa_cho_c + 0.125 coa_m</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>[{'fadh2_m': 'C27H33N9O15P2'}, {'hdcoa_c': 'C37H60N7O17P3S'}, {'R1coa_cho_c': 'RCO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'tdcoa_c': 'C35H58N7O17P3S'}, {'R1coa_cho_c': 'RCO2C21H31N7O15P3S'}, {'coa_m': 'C21H32N7O16P3S'}]</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>{'C': -15, 'H': -31, 'R': 1}</t>
+          <t>{'C': -13.125, 'H': -26.875, 'O': -0.125, 'R': 0.875}</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>ARTFR13</t>
+          <t>ARTFR202</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>tdcoa_c --&gt; 0.875 R1coa_cho_c + 0.125 coa_m</t>
+          <t>0.125 coa_m + 2.0 fadh2_m + h_m + lnlncacoa_c + nadph_m --&gt; 1.125 R2coa_cho_c + 2.0 fad_m + nadp_m</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>[{'tdcoa_c': 'C35H58N7O17P3S'}, {'R1coa_cho_c': 'RCO2C21H31N7O15P3S'}, {'coa_m': 'C21H32N7O16P3S'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'lnlncacoa_c': 'C39H60N7O17P3S'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>{'C': -13.125, 'H': -26.875, 'O': -0.125, 'R': 0.875}</t>
+          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 2.25}</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>ARTFR202</t>
+          <t>ARTFR203</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>0.125 coa_m + 2.0 fadh2_m + h_m + lnlncacoa_c + nadph_m --&gt; 1.125 R2coa_cho_c + 2.0 fad_m + nadp_m</t>
+          <t>0.125 coa_m + 2.0 fadh2_m + h_m + lnlncgcoa_c + nadph_m --&gt; 1.125 R2coa_cho_c + 2.0 fad_m + nadp_m</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'lnlncacoa_c': 'C39H60N7O17P3S'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'lnlncgcoa_c': 'C39H60N7O17P3S'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -14560,17 +14560,17 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ARTFR203</t>
+          <t>ARTFR204</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>0.125 coa_m + 2.0 fadh2_m + h_m + lnlncgcoa_c + nadph_m --&gt; 1.125 R2coa_cho_c + 2.0 fad_m + nadp_m</t>
+          <t>0.125 coa_m + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + strdnccoa_c --&gt; 1.125 R2coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'lnlncgcoa_c': 'C39H60N7O17P3S'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'strdnccoa_c': 'C39H58N7O17P3S'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -14582,39 +14582,39 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>ARTFR204</t>
+          <t>ARTFR205</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>0.125 coa_m + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + strdnccoa_c --&gt; 1.125 R2coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
+          <t>0.25 coa_m + dlnlcgcoa_c + 2.0 fadh2_m + h_m + nadph_m --&gt; 1.25 R2coa_cho_c + 2.0 fad_m + nadp_m</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'strdnccoa_c': 'C39H58N7O17P3S'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'dlnlcgcoa_c': 'C41H64N7O17P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 2.25}</t>
+          <t>{'C': -18.75, 'H': -39.25, 'O': 0.25, 'R': 2.5}</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>ARTFR205</t>
+          <t>ARTFR206</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>0.25 coa_m + dlnlcgcoa_c + 2.0 fadh2_m + h_m + nadph_m --&gt; 1.25 R2coa_cho_c + 2.0 fad_m + nadp_m</t>
+          <t>arachdcoa_c + 0.25 coa_m + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.25 R2coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'dlnlcgcoa_c': 'C41H64N7O17P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'arachdcoa_c': 'C41H62N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -14626,17 +14626,17 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>ARTFR206</t>
+          <t>ARTFR207</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>arachdcoa_c + 0.25 coa_m + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.25 R2coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
+          <t>arachcoa_c + 0.25 coa_m --&gt; 1.25 R2coa_cho_c</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>[{'arachdcoa_c': 'C41H62N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'arachcoa_c': 'C41H70N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -14648,17 +14648,17 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>ARTFR207</t>
+          <t>ARTFR208</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>arachcoa_c + 0.25 coa_m --&gt; 1.25 R2coa_cho_c</t>
+          <t>0.25 coa_m + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + tmndnccoa_c --&gt; 1.25 R2coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>[{'arachcoa_c': 'C41H70N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tmndnccoa_c': 'C41H60N7O17P3S'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -14670,83 +14670,83 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>ARTFR208</t>
+          <t>ARTFR209</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>0.25 coa_m + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + tmndnccoa_c --&gt; 1.25 R2coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
+          <t>adrncoa_c + 0.375 coa_m + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.375 R2coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tmndnccoa_c': 'C41H60N7O17P3S'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'adrncoa_c': 'C43H66N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>{'C': -18.75, 'H': -39.25, 'O': 0.25, 'R': 2.5}</t>
+          <t>{'C': -20.625, 'H': -43.375, 'O': 0.375, 'R': 2.75}</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>ARTFR209</t>
+          <t>ARTFR210</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>adrncoa_c + 0.375 coa_m + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.375 R2coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
+          <t>0.125 coa_m + fadh2_m + h_m + lnlccoa_c + nadph_m --&gt; 1.125 R2coa_cho_c + fad_m + nadp_m</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>[{'adrncoa_c': 'C43H66N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'lnlccoa_c': 'C39H62N7O17P3S'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>{'C': -20.625, 'H': -43.375, 'O': 0.375, 'R': 2.75}</t>
+          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 2.25}</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>ARTFR210</t>
+          <t>ARTFR211</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>0.125 coa_m + fadh2_m + h_m + lnlccoa_c + nadph_m --&gt; 1.125 R2coa_cho_c + fad_m + nadp_m</t>
+          <t>clpndcoa_c + 0.375 coa_m + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.375 R2coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'lnlccoa_c': 'C39H62N7O17P3S'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'clpndcoa_c': 'C43H64N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 2.25}</t>
+          <t>{'C': -20.625, 'H': -43.375, 'O': 0.375, 'R': 2.75}</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>ARTFR211</t>
+          <t>ARTFR212</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>clpndcoa_c + 0.375 coa_m + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.375 R2coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
+          <t>0.375 coa_m + dcsptn1coa_c + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.375 R2coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>[{'clpndcoa_c': 'C43H64N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'dcsptn1coa_c': 'C43H64N7O17P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -14758,17 +14758,17 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>ARTFR212</t>
+          <t>ARTFR213</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>0.375 coa_m + dcsptn1coa_c + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.375 R2coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
+          <t>c226coa_c + 0.375 coa_m + 3.0 fadh2_m + 3.0 h_m + 3.0 nadph_m --&gt; 1.375 R2coa_cho_c + 3.0 fad_m + 3.0 nadp_m</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'dcsptn1coa_c': 'C43H64N7O17P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'c226coa_c': 'C43H62N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -14780,39 +14780,39 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>ARTFR213</t>
+          <t>ARTFR31</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>c226coa_c + 0.375 coa_m + 3.0 fadh2_m + 3.0 h_m + 3.0 nadph_m --&gt; 1.375 R2coa_cho_c + 3.0 fad_m + 3.0 nadp_m</t>
+          <t>0.125 coa_m + stcoa_c --&gt; 1.125 R3coa_cho_c</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>[{'c226coa_c': 'C43H62N7O17P3S'}, {'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'stcoa_c': 'C39H66N7O17P3S'}, {'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>{'C': -20.625, 'H': -43.375, 'O': 0.375, 'R': 2.75}</t>
+          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 3.375}</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>ARTFR31</t>
+          <t>ARTFR32</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>0.125 coa_m + stcoa_c --&gt; 1.125 R3coa_cho_c</t>
+          <t>0.125 coa_m + fadh2_m + odecoa_c --&gt; 1.125 R3coa_cho_c + fad_m</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'stcoa_c': 'C39H66N7O17P3S'}, {'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'odecoa_c': 'C39H64N7O17P3S'}, {'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -14824,17 +14824,17 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>ARTFR32</t>
+          <t>ARTFR33</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>0.125 coa_m + fadh2_m + odecoa_c --&gt; 1.125 R3coa_cho_c + fad_m</t>
+          <t>0.125 coa_m + fadh2_m + vacccoa_c --&gt; 1.125 R3coa_cho_c + fad_m</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'odecoa_c': 'C39H64N7O17P3S'}, {'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'vacccoa_c': 'C39H64N7O17P3S'}, {'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -14846,17 +14846,17 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>ARTFR33</t>
+          <t>ARTFR34</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>0.125 coa_m + fadh2_m + vacccoa_c --&gt; 1.125 R3coa_cho_c + fad_m</t>
+          <t>0.125 coa_m + 2.0 fadh2_m + lneldccoa_c --&gt; 1.125 R3coa_cho_c + 2.0 fad_m</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'vacccoa_c': 'C39H64N7O17P3S'}, {'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'lneldccoa_c': 'C39H62N7O17P3S'}, {'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -14868,61 +14868,61 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>ARTFR34</t>
+          <t>ARTFR41</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>0.125 coa_m + 2.0 fadh2_m + lneldccoa_c --&gt; 1.125 R3coa_cho_c + 2.0 fad_m</t>
+          <t>fadh2_m + hdcoa_c --&gt; R4coa_cho_c + fad_m</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'lneldccoa_c': 'C39H62N7O17P3S'}, {'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'fadh2_m': 'C27H33N9O15P2'}, {'hdcoa_c': 'C37H60N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 3.375}</t>
+          <t>{'C': -15, 'H': -31, 'R': 4}</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ARTFR41</t>
+          <t>ARTFR42</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>fadh2_m + hdcoa_c --&gt; R4coa_cho_c + fad_m</t>
+          <t>0.125 coa_m + fadh2_m + odecoa_c --&gt; 1.125 R4coa_cho_c + fad_m</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>[{'fadh2_m': 'C27H33N9O15P2'}, {'hdcoa_c': 'C37H60N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'odecoa_c': 'C39H64N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>{'C': -15, 'H': -31, 'R': 4}</t>
+          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 4.5}</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>ARTFR42</t>
+          <t>ARTFR43</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>0.125 coa_m + fadh2_m + odecoa_c --&gt; 1.125 R4coa_cho_c + fad_m</t>
+          <t>0.125 coa_m + fadh2_m + vacccoa_c --&gt; 1.125 R4coa_cho_c + fad_m</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'odecoa_c': 'C39H64N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'vacccoa_c': 'C39H64N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -14934,17 +14934,17 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ARTFR43</t>
+          <t>ARTFR44</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>0.125 coa_m + fadh2_m + vacccoa_c --&gt; 1.125 R4coa_cho_c + fad_m</t>
+          <t>0.125 coa_m + 2.0 fadh2_m + lneldccoa_c --&gt; 1.125 R4coa_cho_c + 2.0 fad_m</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'vacccoa_c': 'C39H64N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'lneldccoa_c': 'C39H62N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -14956,149 +14956,149 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ARTFR44</t>
+          <t>ARTFR45</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>0.125 coa_m + 2.0 fadh2_m + lneldccoa_c --&gt; 1.125 R4coa_cho_c + 2.0 fad_m</t>
+          <t>0.5 coa_m + fadh2_m + nrvnccoa_c --&gt; 1.5 R4coa_cho_c + fad_m</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'lneldccoa_c': 'C39H62N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'nrvnccoa_c': 'C45H76N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 4.5}</t>
+          <t>{'C': -22.5, 'H': -47.5, 'O': 0.5, 'R': 6.0}</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>ARTFR45</t>
+          <t>ARTFR46</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>0.5 coa_m + fadh2_m + nrvnccoa_c --&gt; 1.5 R4coa_cho_c + fad_m</t>
+          <t>0.125 coa_m + fadh2_m + od2coa_c --&gt; 1.125 R4coa_cho_c + fad_m</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'nrvnccoa_c': 'C45H76N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'od2coa_c': 'C39H64N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>{'C': -22.5, 'H': -47.5, 'O': 0.5, 'R': 6.0}</t>
+          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 4.5}</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ARTFR46</t>
+          <t>ARTFR51</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>0.125 coa_m + fadh2_m + od2coa_c --&gt; 1.125 R4coa_cho_c + fad_m</t>
+          <t>0.5 coa_m + lgnccoa_c --&gt; 1.5 R5coa_cho_c</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'od2coa_c': 'C39H64N7O17P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'lgnccoa_c': 'C45H78N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>{'C': -16.875, 'H': -35.125, 'O': 0.125, 'R': 4.5}</t>
+          <t>{'C': -22.5, 'H': -47.5, 'O': 0.5, 'R': 7.5}</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>ARTFR51</t>
+          <t>ARTFR52</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>0.5 coa_m + lgnccoa_c --&gt; 1.5 R5coa_cho_c</t>
+          <t>0.625 coa_m + hexccoa_c --&gt; 1.625 R5coa_cho_c</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'lgnccoa_c': 'C45H78N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'hexccoa_c': 'C47H82N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>{'C': -22.5, 'H': -47.5, 'O': 0.5, 'R': 7.5}</t>
+          <t>{'C': -24.375, 'H': -51.625, 'O': 0.625, 'R': 8.125}</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>ARTFR52</t>
+          <t>ARTFR53</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>0.625 coa_m + hexccoa_c --&gt; 1.625 R5coa_cho_c</t>
+          <t>0.25 coa_m + eicostetcoa_c + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.25 R5coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'hexccoa_c': 'C47H82N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'eicostetcoa_c': 'C41H62N7O17P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>{'C': -24.375, 'H': -51.625, 'O': 0.625, 'R': 8.125}</t>
+          <t>{'C': -18.75, 'H': -39.25, 'O': 0.25, 'R': 6.25}</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>ARTFR53</t>
+          <t>ARTFR54</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>0.25 coa_m + eicostetcoa_c + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m --&gt; 1.25 R5coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
+          <t>0.5 coa_m + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + tetpent6coa_c --&gt; 1.5 R5coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'eicostetcoa_c': 'C41H62N7O17P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tetpent6coa_c': 'C45H68N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>{'C': -18.75, 'H': -39.25, 'O': 0.25, 'R': 6.25}</t>
+          <t>{'C': -22.5, 'H': -47.5, 'O': 0.5, 'R': 7.5}</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>ARTFR54</t>
+          <t>ARTFR55</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>0.5 coa_m + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + tetpent6coa_c --&gt; 1.5 R5coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
+          <t>0.5 coa_m + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + tetpent3coa_c --&gt; 1.5 R5coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tetpent6coa_c': 'C45H68N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tetpent3coa_c': 'C45H68N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -15110,17 +15110,17 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>ARTFR55</t>
+          <t>ARTFR56</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>0.5 coa_m + 3.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + tetpent3coa_c --&gt; 1.5 R5coa_cho_c + 3.0 fad_m + 2.0 nadp_m</t>
+          <t>0.5 coa_m + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + tettet6coa_c --&gt; 1.5 R5coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tetpent3coa_c': 'C45H68N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tettet6coa_c': 'C45H70N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -15132,17 +15132,17 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>ARTFR56</t>
+          <t>ARTFR57</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>0.5 coa_m + 2.0 fadh2_m + 2.0 h_m + 2.0 nadph_m + tettet6coa_c --&gt; 1.5 R5coa_cho_c + 2.0 fad_m + 2.0 nadp_m</t>
+          <t>0.5 coa_m + 3.0 fadh2_m + 3.0 h_m + 3.0 nadph_m + tethex3coa_c --&gt; 1.5 R5coa_cho_c + 3.0 fad_m + 3.0 nadp_m</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tettet6coa_c': 'C45H70N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tethex3coa_c': 'C45H66N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -15154,61 +15154,61 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>ARTFR57</t>
+          <t>ARTFR61</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>0.5 coa_m + 3.0 fadh2_m + 3.0 h_m + 3.0 nadph_m + tethex3coa_c --&gt; 1.5 R5coa_cho_c + 3.0 fad_m + 3.0 nadp_m</t>
+          <t>fadh2_m + hdd2coa_c --&gt; R6coa_cho_c + fad_m</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'fadh2_m': 'C27H33N9O15P2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'tethex3coa_c': 'C45H66N7O17P3S'}, {'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'fadh2_m': 'C27H33N9O15P2'}, {'hdd2coa_c': 'C37H60N7O17P3S'}, {'R6coa_cho_c': 'R6CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>{'C': -22.5, 'H': -47.5, 'O': 0.5, 'R': 7.5}</t>
+          <t>{'C': -15, 'H': -31, 'R': 6}</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>ARTFR61</t>
+          <t>ARTPLM1</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>fadh2_m + hdd2coa_c --&gt; R6coa_cho_c + fad_m</t>
+          <t>Rtotalcoa_c &lt;=&gt; pmtcoa_c</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>[{'fadh2_m': 'C27H33N9O15P2'}, {'hdd2coa_c': 'C37H60N7O17P3S'}, {'R6coa_cho_c': 'R6CO2C21H31N7O15P3S'}, {'fad_m': 'C27H31N9O15P2'}]</t>
+          <t>[{'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}, {'pmtcoa_c': 'C37H62N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>{'C': -15, 'H': -31, 'R': 6}</t>
+          <t>{'C': 15, 'R': -1, 'H': 31}</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>ARTPLM1</t>
+          <t>ARTPLM1m</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Rtotalcoa_c &lt;=&gt; pmtcoa_c</t>
+          <t>Rtotalcoa_m &lt;=&gt; pmtcoa_m</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>[{'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}, {'pmtcoa_c': 'C37H62N7O17P3S'}]</t>
+          <t>[{'Rtotalcoa_m': 'CO2RC21H31N7O15P3S'}, {'pmtcoa_m': 'C37H62N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -15220,39 +15220,39 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>ARTPLM1m</t>
+          <t>ARTPLM2</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Rtotalcoa_m &lt;=&gt; pmtcoa_m</t>
+          <t>Rtotal2coa_c &lt;=&gt; pmtcoa_c</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>[{'Rtotalcoa_m': 'CO2RC21H31N7O15P3S'}, {'pmtcoa_m': 'C37H62N7O17P3S'}]</t>
+          <t>[{'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'pmtcoa_c': 'C37H62N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>{'C': 15, 'R': -1, 'H': 31}</t>
+          <t>{'C': 15, 'R': -2, 'H': 31}</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>ARTPLM2</t>
+          <t>ARTPLM2m</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Rtotal2coa_c &lt;=&gt; pmtcoa_c</t>
+          <t>Rtotal2coa_m &lt;=&gt; pmtcoa_m</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>[{'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'pmtcoa_c': 'C37H62N7O17P3S'}]</t>
+          <t>[{'Rtotal2coa_m': 'CO2R2C21H31N7O15P3S'}, {'pmtcoa_m': 'C37H62N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -15264,39 +15264,39 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>ARTPLM2m</t>
+          <t>ARTPLM3</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Rtotal2coa_m &lt;=&gt; pmtcoa_m</t>
+          <t>Rtotal3coa_c &lt;=&gt; pmtcoa_c</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>[{'Rtotal2coa_m': 'CO2R2C21H31N7O15P3S'}, {'pmtcoa_m': 'C37H62N7O17P3S'}]</t>
+          <t>[{'Rtotal3coa_c': 'CO2R3C21H31N7O15P3S'}, {'pmtcoa_c': 'C37H62N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>{'C': 15, 'R': -2, 'H': 31}</t>
+          <t>{'C': 15, 'R': -3, 'H': 31}</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>ARTPLM3</t>
+          <t>ARTPLM3m</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Rtotal3coa_c &lt;=&gt; pmtcoa_c</t>
+          <t>Rtotal3coa_m &lt;=&gt; pmtcoa_m</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>[{'Rtotal3coa_c': 'CO2R3C21H31N7O15P3S'}, {'pmtcoa_c': 'C37H62N7O17P3S'}]</t>
+          <t>[{'Rtotal3coa_m': 'CO2R3C21H31N7O15P3S'}, {'pmtcoa_m': 'C37H62N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -15308,303 +15308,303 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>ARTPLM3m</t>
+          <t>RTOT_2</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Rtotal3coa_m &lt;=&gt; pmtcoa_m</t>
+          <t>R2coa_cho_c + R4coa_cho_c --&gt; 2.0 Rtotal2coa_c</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>[{'Rtotal3coa_m': 'CO2R3C21H31N7O15P3S'}, {'pmtcoa_m': 'C37H62N7O17P3S'}]</t>
+          <t>[{'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>{'C': 15, 'R': -3, 'H': 31}</t>
+          <t>{'R': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>RTOT_2</t>
+          <t>RTOT_3</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>R2coa_cho_c + R4coa_cho_c --&gt; 2.0 Rtotal2coa_c</t>
+          <t>R1coa_cho_c + R2coa_cho_c --&gt; 2.0 Rtotal3coa_c</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>[{'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}]</t>
+          <t>[{'R1coa_cho_c': 'RCO2C21H31N7O15P3S'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'Rtotal3coa_c': 'CO2R3C21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>{'R': -2.0}</t>
+          <t>{'R': 3.0}</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>RTOT_3</t>
+          <t>RTOT2</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>R1coa_cho_c + R2coa_cho_c --&gt; 2.0 Rtotal3coa_c</t>
+          <t>R2coa_cho_c --&gt; Rtotalcoa_c</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>[{'R1coa_cho_c': 'RCO2C21H31N7O15P3S'}, {'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'Rtotal3coa_c': 'CO2R3C21H31N7O15P3S'}]</t>
+          <t>[{'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>{'R': 3.0}</t>
+          <t>{'R': -1}</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>RTOT2</t>
+          <t>RTOT3</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>R2coa_cho_c --&gt; Rtotalcoa_c</t>
+          <t>R3coa_cho_c --&gt; Rtotalcoa_c</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>[{'R2coa_cho_c': 'R2CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
+          <t>[{'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>{'R': -1}</t>
+          <t>{'R': -2}</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>RTOT3</t>
+          <t>RTOT4</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>R3coa_cho_c --&gt; Rtotalcoa_c</t>
+          <t>R4coa_cho_c --&gt; Rtotalcoa_c</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>[{'R3coa_cho_c': 'R3CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
+          <t>[{'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>{'R': -2}</t>
+          <t>{'R': -3}</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>RTOT4</t>
+          <t>RTOT5</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>R4coa_cho_c --&gt; Rtotalcoa_c</t>
+          <t>R5coa_cho_c --&gt; Rtotalcoa_c</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>[{'R4coa_cho_c': 'R4CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
+          <t>[{'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>{'R': -3}</t>
+          <t>{'R': -4}</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>RTOT5</t>
+          <t>RTOT6</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>R5coa_cho_c --&gt; Rtotalcoa_c</t>
+          <t>R6coa_cho_c --&gt; Rtotalcoa_c</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>[{'R5coa_cho_c': 'R5CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
+          <t>[{'R6coa_cho_c': 'R6CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>{'R': -4}</t>
+          <t>{'R': -5}</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>RTOT6</t>
+          <t>HMR_6907</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>R6coa_cho_c --&gt; Rtotalcoa_c</t>
+          <t>2dp6mep_m + 3.0 h_m + nadph_m + o2_m --&gt; M00658_m + h2o_m + nadp_m</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>[{'R6coa_cho_c': 'R6CO2C21H31N7O15P3S'}, {'Rtotalcoa_c': 'CO2RC21H31N7O15P3S'}]</t>
+          <t>[{'2dp6mep_m': 'C57H88O2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'o2_m': 'O2'}, {'M00658_m': 'C57H90O3'}, {'h2o_m': 'H2O'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>{'R': -5}</t>
+          <t>{'charge': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>HMR_6907</t>
+          <t>HMR_6910</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2dp6mep_m + 3.0 h_m + nadph_m + o2_m --&gt; M00658_m + h2o_m + nadp_m</t>
+          <t>M00770_m + amet_m --&gt; ahcys_m + 3.0 h_m + q10h2_m</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>[{'2dp6mep_m': 'C57H88O2'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'o2_m': 'O2'}, {'M00658_m': 'C57H90O3'}, {'h2o_m': 'H2O'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'M00770_m': 'C58H92O4'}, {'amet_m': 'C15H23N6O5S'}, {'ahcys_m': 'C14H20N6O5S'}, {'h_m': 'H'}, {'q10h2_m': 'C59H92O4'}]</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>{'charge': -2.0}</t>
+          <t>{'charge': 2.0}</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>HMR_6910</t>
+          <t>HMR_7166</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>M00770_m + amet_m --&gt; ahcys_m + 3.0 h_m + q10h2_m</t>
+          <t>M00200_c + frdp_c --&gt; M02898_c + ppi_c</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>[{'M00770_m': 'C58H92O4'}, {'amet_m': 'C15H23N6O5S'}, {'ahcys_m': 'C14H20N6O5S'}, {'h_m': 'H'}, {'q10h2_m': 'C59H92O4'}]</t>
+          <t>[{'M00200_c': 'C3H5NOS'}, {'frdp_c': 'C15H25O7P2'}, {'M02898_c': 'C26H39N5O6SR4'}, {'ppi_c': 'HO7P2'}]</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>{'charge': 2.0}</t>
+          <t>{'C': 8, 'H': 10, 'N': 4, 'O': 5, 'R': 4}</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>HMR_7166</t>
+          <t>AMACR2r</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>M00200_c + frdp_c --&gt; M02898_c + ppi_c</t>
+          <t>dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>[{'M00200_c': 'C3H5NOS'}, {'frdp_c': 'C15H25O7P2'}, {'M02898_c': 'C26H39N5O6SR4'}, {'ppi_c': 'HO7P2'}]</t>
+          <t>[{'dhcholestancoa_r': 'C48H76N7O19P3S'}, {'o2_r': 'O2'}, {'dhcholoylcoa_r': 'C48H74N7O19P3S'}, {'h2o_r': 'H2O'}]</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>{'C': 8, 'H': 10, 'N': 4, 'O': 5, 'R': 4}</t>
+          <t>{'charge': 4.0}</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>AMACR2r</t>
+          <t>AMACRr</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
+          <t>cholcoar_r --&gt; cholcoas_r</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>[{'dhcholestancoa_r': 'C48H76N7O19P3S'}, {'o2_r': 'O2'}, {'dhcholoylcoa_r': 'C48H74N7O19P3S'}, {'h2o_r': 'H2O'}]</t>
+          <t>[{'cholcoar_r': 'C48H76N7O20P3S'}, {'cholcoas_r': 'C48H76N7O20P3S'}]</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>{'charge': 4.0}</t>
+          <t>{'charge': 4}</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>AMACRr</t>
+          <t>BAAT3x</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>cholcoar_r --&gt; cholcoas_r</t>
+          <t>dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>[{'cholcoar_r': 'C48H76N7O20P3S'}, {'cholcoas_r': 'C48H76N7O20P3S'}]</t>
+          <t>[{'dgcholcoa_x': 'C45H70N7O19P3S'}, {'gly_x': 'C2H5NO2'}, {'coa_x': 'C21H32N7O16P3S'}, {'dgchol_x': 'C26H43NO5'}, {'h_x': 'H'}]</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>{'charge': 4}</t>
+          <t>{'charge': 1, 'H': 1}</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>BAAT3x</t>
+          <t>BAAT4x</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
+          <t>dcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>[{'dgcholcoa_x': 'C45H70N7O19P3S'}, {'gly_x': 'C2H5NO2'}, {'coa_x': 'C21H32N7O16P3S'}, {'dgchol_x': 'C26H43NO5'}, {'h_x': 'H'}]</t>
+          <t>[{'dcholcoa_x': 'C45H70N7O19P3S'}, {'gly_x': 'C2H5NO2'}, {'coa_x': 'C21H32N7O16P3S'}, {'dgchol_x': 'C26H43NO5'}, {'h_x': 'H'}]</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -15616,39 +15616,39 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>BAAT4x</t>
+          <t>C02528LGBAB1_r</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>dcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
+          <t>atp_r + bilglcur_r + coa_r --&gt; amp_r + dcholcoa_r + ppi_r</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>[{'dcholcoa_x': 'C45H70N7O19P3S'}, {'gly_x': 'C2H5NO2'}, {'coa_x': 'C21H32N7O16P3S'}, {'dgchol_x': 'C26H43NO5'}, {'h_x': 'H'}]</t>
+          <t>[{'coa_r': 'C21H32N7O16P3S'}, {'atp_r': 'C10H12N5O13P3'}, {'bilglcur_r': 'C39H42N4O12'}, {'ppi_r': 'HO7P2'}, {'amp_r': 'C10H12N5O7P'}, {'dcholcoa_r': 'C45H70N7O19P3S'}]</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'H': 1}</t>
+          <t>{'charge': -1, 'C': -15, 'H': -3, 'N': -4, 'O': -8}</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>C02528LGBAB1_r</t>
+          <t>C02528LGBAB2_c</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>atp_r + bilglcur_r + coa_r --&gt; amp_r + dcholcoa_r + ppi_r</t>
+          <t>atp_c + bilglcur_c + coa_c --&gt; amp_c + dcholcoa_c + ppi_c</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>[{'coa_r': 'C21H32N7O16P3S'}, {'atp_r': 'C10H12N5O13P3'}, {'bilglcur_r': 'C39H42N4O12'}, {'ppi_r': 'HO7P2'}, {'amp_r': 'C10H12N5O7P'}, {'dcholcoa_r': 'C45H70N7O19P3S'}]</t>
+          <t>[{'coa_c': 'C21H32N7O16P3S'}, {'atp_c': 'C10H12N5O13P3'}, {'bilglcur_c': 'C39H42N4O12'}, {'amp_c': 'C10H12N5O7P'}, {'ppi_c': 'HO7P2'}, {'dcholcoa_c': 'C45H70N7O19P3S'}]</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -15660,83 +15660,83 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>C02528LGBAB2_c</t>
+          <t>GapFill-R04807</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>atp_c + bilglcur_c + coa_c --&gt; amp_c + dcholcoa_c + ppi_c</t>
+          <t>nadph_c + o2_c + xoltriol_c &lt;=&gt; h2o_c + nadp_c + xoltetrol_c</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>[{'coa_c': 'C21H32N7O16P3S'}, {'atp_c': 'C10H12N5O13P3'}, {'bilglcur_c': 'C39H42N4O12'}, {'amp_c': 'C10H12N5O7P'}, {'ppi_c': 'HO7P2'}, {'dcholcoa_c': 'C45H70N7O19P3S'}]</t>
+          <t>[{'nadph_c': 'C21H26N7O17P3'}, {'o2_c': 'O2'}, {'xoltriol_c': 'C27H48O3'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'xoltetrol_c': 'C27H48O4'}]</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': -15, 'H': -3, 'N': -4, 'O': -8}</t>
+          <t>{'charge': 1, 'H': 1}</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>GapFill-R04807</t>
+          <t>GapFill-R08726</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>nadph_c + o2_c + xoltriol_c &lt;=&gt; h2o_c + nadp_c + xoltetrol_c</t>
+          <t>2.0 h_c + 2.0 nadph_c + 2.0 o2_c + xol27oh_c &lt;=&gt; CE1292_c + 3.0 h2o_c + 2.0 nadp_c</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>[{'nadph_c': 'C21H26N7O17P3'}, {'o2_c': 'O2'}, {'xoltriol_c': 'C27H48O3'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'xoltetrol_c': 'C27H48O4'}]</t>
+          <t>[{'nadph_c': 'C21H26N7O17P3'}, {'o2_c': 'O2'}, {'h_c': 'H'}, {'xol27oh_c': 'C27H46O2'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'CE1292_c': 'C27H43O3'}]</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'H': 1}</t>
+          <t>{'charge': -1.0, 'H': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>GapFill-R08726</t>
+          <t>HC02195c</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2.0 h_c + 2.0 nadph_c + 2.0 o2_c + xol27oh_c &lt;=&gt; CE1292_c + 3.0 h2o_c + 2.0 nadp_c</t>
+          <t>taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>[{'nadph_c': 'C21H26N7O17P3'}, {'o2_c': 'O2'}, {'h_c': 'H'}, {'xol27oh_c': 'C27H46O2'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'CE1292_c': 'C27H43O3'}]</t>
+          <t>[{'taur_c': 'C2H7NO3S'}, {'urscholcoa_c': 'C45H70N7O19P3S'}, {'HC02195_c': 'C26H45NO6S'}, {'coa_c': 'C21H32N7O16P3S'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>{'charge': -1.0, 'H': -1.0}</t>
+          <t>{'charge': 1, 'H': 1}</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>HC02195c</t>
+          <t>HC02196c</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
+          <t>gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>[{'taur_c': 'C2H7NO3S'}, {'urscholcoa_c': 'C45H70N7O19P3S'}, {'HC02195_c': 'C26H45NO6S'}, {'coa_c': 'C21H32N7O16P3S'}, {'h_c': 'H'}]</t>
+          <t>[{'gly_c': 'C2H5NO2'}, {'urscholcoa_c': 'C45H70N7O19P3S'}, {'HC02196_c': 'C26H43NO5'}, {'coa_c': 'C21H32N7O16P3S'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -15748,347 +15748,347 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>HC02196c</t>
+          <t>HMR_1689</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
+          <t>CE0233_m + nad_m --&gt; CE5133_m + h_m + nadh_m</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>[{'gly_c': 'C2H5NO2'}, {'urscholcoa_c': 'C45H70N7O19P3S'}, {'HC02196_c': 'C26H43NO5'}, {'coa_c': 'C21H32N7O16P3S'}, {'h_c': 'H'}]</t>
+          <t>[{'CE0233_m': 'C27H48O3'}, {'nad_m': 'C21H26N7O14P2'}, {'CE5133_m': 'C27H46O5'}, {'h_m': 'H'}, {'nadh_m': 'C21H27N7O14P2'}]</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'H': 1}</t>
+          <t>{'O': 2}</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>HMR_1689</t>
+          <t>HMR_1691</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>CE0233_m + nad_m --&gt; CE5133_m + h_m + nadh_m</t>
+          <t>CE5133_m + h2o_m + nadp_m --&gt; dhcholestanate_m + h_m + nadph_m</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>[{'CE0233_m': 'C27H48O3'}, {'nad_m': 'C21H26N7O14P2'}, {'CE5133_m': 'C27H46O5'}, {'h_m': 'H'}, {'nadh_m': 'C21H27N7O14P2'}]</t>
+          <t>[{'CE5133_m': 'C27H46O5'}, {'h2o_m': 'H2O'}, {'nadp_m': 'C21H25N7O17P3'}, {'dhcholestanate_m': 'C27H45O4'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}]</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>{'O': 2}</t>
+          <t>{'H': -1, 'O': -2, 'charge': -1}</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>HMR_1691</t>
+          <t>HMR_1703</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>CE5133_m + h2o_m + nadp_m --&gt; dhcholestanate_m + h_m + nadph_m</t>
+          <t>dhcholestancoa_x &lt;=&gt; M00617_x</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>[{'CE5133_m': 'C27H46O5'}, {'h2o_m': 'H2O'}, {'nadp_m': 'C21H25N7O17P3'}, {'dhcholestanate_m': 'C27H45O4'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}]</t>
+          <t>[{'dhcholestancoa_x': 'C48H76N7O19P3S'}, {'M00617_x': 'C48H76N7O19P3S'}]</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>{'H': -1, 'O': -2, 'charge': -1}</t>
+          <t>{'charge': 4}</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>HMR_1703</t>
+          <t>HMR_1704</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>dhcholestancoa_x &lt;=&gt; M00617_x</t>
+          <t>M00617_x + o2_x --&gt; dhcholoylcoa_x + h2o2_x</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>[{'dhcholestancoa_x': 'C48H76N7O19P3S'}, {'M00617_x': 'C48H76N7O19P3S'}]</t>
+          <t>[{'M00617_x': 'C48H76N7O19P3S'}, {'o2_x': 'O2'}, {'dhcholoylcoa_x': 'C48H74N7O19P3S'}, {'h2o2_x': 'H2O2'}]</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>{'charge': 4}</t>
+          <t>{'charge': -4}</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>HMR_1704</t>
+          <t>HMR_1708</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>M00617_x + o2_x --&gt; dhcholoylcoa_x + h2o2_x</t>
+          <t>nad_x + thcholoylcoa_x --&gt; M00754_x + h_x + nadh_x</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>[{'M00617_x': 'C48H76N7O19P3S'}, {'o2_x': 'O2'}, {'dhcholoylcoa_x': 'C48H74N7O19P3S'}, {'h2o2_x': 'H2O2'}]</t>
+          <t>[{'nad_x': 'C21H26N7O14P2'}, {'thcholoylcoa_x': 'C48H76N7O20P3S'}, {'M00754_x': 'C48H74N7O20P3S'}, {'h_x': 'H'}, {'nadh_x': 'C21H27N7O14P2'}]</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>{'charge': -4}</t>
+          <t>{'charge': 4}</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>HMR_1708</t>
+          <t>HMR_1710</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>nad_x + thcholoylcoa_x --&gt; M00754_x + h_x + nadh_x</t>
+          <t>M00754_x + coa_x --&gt; dcholcoa_x + ppcoa_x</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>[{'nad_x': 'C21H26N7O14P2'}, {'thcholoylcoa_x': 'C48H76N7O20P3S'}, {'M00754_x': 'C48H74N7O20P3S'}, {'h_x': 'H'}, {'nadh_x': 'C21H27N7O14P2'}]</t>
+          <t>[{'M00754_x': 'C48H74N7O20P3S'}, {'coa_x': 'C21H32N7O16P3S'}, {'dcholcoa_x': 'C45H70N7O19P3S'}, {'ppcoa_x': 'C24H36N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>{'charge': 4}</t>
+          <t>{'charge': -4}</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>HMR_1710</t>
+          <t>HMR_1730</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>M00754_x + coa_x --&gt; dcholcoa_x + ppcoa_x</t>
+          <t>HC02220_c + h2o_c --&gt; C02528_c + h_c + so4_c</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>[{'M00754_x': 'C48H74N7O20P3S'}, {'coa_x': 'C21H32N7O16P3S'}, {'dcholcoa_x': 'C45H70N7O19P3S'}, {'ppcoa_x': 'C24H36N7O17P3S'}]</t>
+          <t>[{'HC02220_c': 'C24H38O7S'}, {'h2o_c': 'H2O'}, {'C02528_c': 'C24H39O4'}, {'h_c': 'H'}, {'so4_c': 'O4S'}]</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>{'charge': -4}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>HMR_1730</t>
+          <t>HMR_1741</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>HC02220_c + h2o_c --&gt; C02528_c + h_c + so4_c</t>
+          <t>M00978_c + h_c + nadph_c --&gt; M01081_c + nadp_c</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>[{'HC02220_c': 'C24H38O7S'}, {'h2o_c': 'H2O'}, {'C02528_c': 'C24H39O4'}, {'h_c': 'H'}, {'so4_c': 'O4S'}]</t>
+          <t>[{'M00978_c': 'C27H44O3'}, {'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'M01081_c': 'C27H46O4'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'O': 1}</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>HMR_1741</t>
+          <t>HMR_1743</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>M00978_c + h_c + nadph_c --&gt; M01081_c + nadp_c</t>
+          <t>M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>[{'M00978_c': 'C27H44O3'}, {'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'M01081_c': 'C27H46O4'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
+          <t>[{'M01081_c': 'C27H46O4'}, {'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'M01080_c': 'C27H48O3'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>{'O': 1}</t>
+          <t>{'O': -1}</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>HMR_1743</t>
+          <t>HMR_1750</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
+          <t>M00746_m + 3.0 h_m + nadph_m + o2_m --&gt; M02977_m + h2o_m + nadp_m</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>[{'M01081_c': 'C27H46O4'}, {'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'M01080_c': 'C27H48O3'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
+          <t>[{'M00746_m': 'C27H46O5'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'o2_m': 'O2'}, {'M02977_m': 'C27H47O4'}, {'h2o_m': 'H2O'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>{'O': -1}</t>
+          <t>{'charge': -3.0, 'H': -1.0, 'O': -2}</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>HMR_1750</t>
+          <t>HMR_1754</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>M00746_m + 3.0 h_m + nadph_m + o2_m --&gt; M02977_m + h2o_m + nadp_m</t>
+          <t>M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>[{'M00746_m': 'C27H46O5'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'o2_m': 'O2'}, {'M02977_m': 'C27H47O4'}, {'h2o_m': 'H2O'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'M02977_c': 'C27H47O4'}, {'atp_c': 'C10H12N5O13P3'}, {'coa_c': 'C21H32N7O16P3S'}, {'M00615_c': 'C48H76N7O21P3S'}, {'amp_c': 'C10H12N5O7P'}, {'h2o_c': 'H2O'}, {'ppi_c': 'HO7P2'}]</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>{'charge': -3.0, 'H': -1.0, 'O': -2}</t>
+          <t>{'O': 3}</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>HMR_1754</t>
+          <t>HMR_1800</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
+          <t>nadph_m + o2_m + xoltri27_m --&gt; CE3038_m + h2o_m + 2.0 h_m + nadp_m</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>[{'M02977_c': 'C27H47O4'}, {'atp_c': 'C10H12N5O13P3'}, {'coa_c': 'C21H32N7O16P3S'}, {'M00615_c': 'C48H76N7O21P3S'}, {'amp_c': 'C10H12N5O7P'}, {'h2o_c': 'H2O'}, {'ppi_c': 'HO7P2'}]</t>
+          <t>[{'nadph_m': 'C21H26N7O17P3'}, {'o2_m': 'O2'}, {'xoltri27_m': 'C27H46O3'}, {'CE3038_m': 'C27H43O4'}, {'h2o_m': 'H2O'}, {'h_m': 'H'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>{'O': 3}</t>
+          <t>{'charge': 2.0}</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>HMR_1800</t>
+          <t>r0698</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>nadph_m + o2_m + xoltri27_m --&gt; CE3038_m + h2o_m + 2.0 h_m + nadp_m</t>
+          <t>dcholcoa_x + 4.0 h_x + ppcoa_x --&gt; coa_x + dhcholestancoa_x + h2o_x</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>[{'nadph_m': 'C21H26N7O17P3'}, {'o2_m': 'O2'}, {'xoltri27_m': 'C27H46O3'}, {'CE3038_m': 'C27H43O4'}, {'h2o_m': 'H2O'}, {'h_m': 'H'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'dcholcoa_x': 'C45H70N7O19P3S'}, {'h_x': 'H'}, {'ppcoa_x': 'C24H36N7O17P3S'}, {'coa_x': 'C21H32N7O16P3S'}, {'dhcholestancoa_x': 'C48H76N7O19P3S'}, {'h2o_x': 'H2O'}]</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>{'charge': 2.0}</t>
+          <t>{'charge': -4.0}</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>r0698</t>
+          <t>RE1836M</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>dcholcoa_x + 4.0 h_x + ppcoa_x --&gt; coa_x + dhcholestancoa_x + h2o_x</t>
+          <t>coa_m + dhcholestancoa_m + o2_m &lt;=&gt; dcholcoa_m + h2o_m + ppcoa_m</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>[{'dcholcoa_x': 'C45H70N7O19P3S'}, {'h_x': 'H'}, {'ppcoa_x': 'C24H36N7O17P3S'}, {'coa_x': 'C21H32N7O16P3S'}, {'dhcholestancoa_x': 'C48H76N7O19P3S'}, {'h2o_x': 'H2O'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'dhcholestancoa_m': 'C48H76N7O19P3S'}, {'o2_m': 'O2'}, {'dcholcoa_m': 'C45H70N7O19P3S'}, {'h2o_m': 'H2O'}, {'ppcoa_m': 'C24H36N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>{'charge': -4.0}</t>
+          <t>{'charge': -4}</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>RE1836M</t>
+          <t>GapFill-R03354</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>coa_m + dhcholestancoa_m + o2_m &lt;=&gt; dcholcoa_m + h2o_m + ppcoa_m</t>
+          <t>gluside_cho_c + udpgal_c &lt;=&gt; lside_c + udp_c</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'dhcholestancoa_m': 'C48H76N7O19P3S'}, {'o2_m': 'O2'}, {'dcholcoa_m': 'C45H70N7O19P3S'}, {'h2o_m': 'H2O'}, {'ppcoa_m': 'C24H36N7O17P3S'}]</t>
+          <t>[{'udpgal_c': 'C15H22N2O17P2'}, {'gluside_cho_c': 'C24H46NO7RCO'}, {'udp_c': 'C9H11N2O12P2'}, {'lside_c': 'C31H56NO13R'}]</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>{'charge': -4}</t>
+          <t>{'charge': -1, 'H': -1}</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>GapFill-R03354</t>
+          <t>GapFill-R03488</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>gluside_cho_c + udpgal_c &lt;=&gt; lside_c + udp_c</t>
+          <t>cmpacna_g + lside_g &lt;=&gt; cmp_g + gm3_cho_g</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>[{'udpgal_c': 'C15H22N2O17P2'}, {'gluside_cho_c': 'C24H46NO7RCO'}, {'udp_c': 'C9H11N2O12P2'}, {'lside_c': 'C31H56NO13R'}]</t>
+          <t>[{'cmpacna_g': 'C20H29N4O16P'}, {'lside_g': 'C31H56NO13R'}, {'cmp_g': 'C9H12N3O8P'}, {'gm3_cho_g': 'C41H72N2O20RCO'}]</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -16100,17 +16100,17 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>GapFill-R03488</t>
+          <t>GapFill-R04583</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>cmpacna_g + lside_g &lt;=&gt; cmp_g + gm3_cho_g</t>
+          <t>cmpacna_g + gm3_cho_g &lt;=&gt; cmp_g + gd3_cho_g</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>[{'cmpacna_g': 'C20H29N4O16P'}, {'lside_g': 'C31H56NO13R'}, {'cmp_g': 'C9H12N3O8P'}, {'gm3_cho_g': 'C41H72N2O20RCO'}]</t>
+          <t>[{'cmpacna_g': 'C20H29N4O16P'}, {'gm3_cho_g': 'C41H72N2O20RCO'}, {'cmp_g': 'C9H12N3O8P'}, {'gd3_cho_g': 'C52H88N3O28RCO'}]</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -16122,655 +16122,655 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>GapFill-R04583</t>
+          <t>HMR_0716</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>cmpacna_g + gm3_cho_g &lt;=&gt; cmp_g + gd3_cho_g</t>
+          <t>M02748_c + h2o_c + h_c --&gt; Rtotal2_c + phsphings_c</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>[{'cmpacna_g': 'C20H29N4O16P'}, {'gm3_cho_g': 'C41H72N2O20RCO'}, {'cmp_g': 'C9H12N3O8P'}, {'gd3_cho_g': 'C52H88N3O28RCO'}]</t>
+          <t>[{'M02748_c': 'C19H38NO4R'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'Rtotal2_c': 'CO2R2'}, {'phsphings_c': 'C18H40NO3'}]</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1}</t>
+          <t>{'H': -1, 'R': 1, 'charge': -1}</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>HMR_0716</t>
+          <t>HMR_0733</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>M02748_c + h2o_c + h_c --&gt; Rtotal2_c + phsphings_c</t>
+          <t>coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>[{'M02748_c': 'C19H38NO4R'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'Rtotal2_c': 'CO2R2'}, {'phsphings_c': 'C18H40NO3'}]</t>
+          <t>[{'coa_g': 'C21H32N7O16P3S'}, {'crm_cho_g': 'C18H36NO2RCO'}, {'h_g': 'H'}, {'Rtotal2coa_g': 'CO2R2C21H31N7O15P3S'}, {'sphings_g': 'C18H38NO2'}]</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>{'H': -1, 'R': 1, 'charge': -1}</t>
+          <t>{'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>HMR_0733</t>
+          <t>HMR_0750</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
+          <t>Rtotal2coa_c + sphgn_c --&gt; coa_c + dhcrm_cho_c + h_c</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>[{'coa_g': 'C21H32N7O16P3S'}, {'crm_cho_g': 'C18H36NO2RCO'}, {'h_g': 'H'}, {'Rtotal2coa_g': 'CO2R2C21H31N7O15P3S'}, {'sphings_g': 'C18H38NO2'}]</t>
+          <t>[{'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'sphgn_c': 'C18H40NO2'}, {'coa_c': 'C21H32N7O16P3S'}, {'dhcrm_cho_c': 'C18H38NO2RCO'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>{'R': 1}</t>
+          <t>{'R': -1}</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>HMR_0750</t>
+          <t>HMR_0753</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Rtotal2coa_c + sphgn_c --&gt; coa_c + dhcrm_cho_c + h_c</t>
+          <t>dhcrm_cho_c + h2o_c + h_c &lt;=&gt; Rtotal2_c + sphgn_c</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>[{'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'sphgn_c': 'C18H40NO2'}, {'coa_c': 'C21H32N7O16P3S'}, {'dhcrm_cho_c': 'C18H38NO2RCO'}, {'h_c': 'H'}]</t>
+          <t>[{'dhcrm_cho_c': 'C18H38NO2RCO'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'Rtotal2_c': 'CO2R2'}, {'sphgn_c': 'C18H40NO2'}]</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>{'R': -1}</t>
+          <t>{'charge': -1, 'H': -1, 'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>HMR_0753</t>
+          <t>HMR_0758</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>dhcrm_cho_c + h2o_c + h_c &lt;=&gt; Rtotal2_c + sphgn_c</t>
+          <t>coa_c + crm_cho_c + h_c --&gt; Rtotal2coa_c + sphings_c</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>[{'dhcrm_cho_c': 'C18H38NO2RCO'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'Rtotal2_c': 'CO2R2'}, {'sphgn_c': 'C18H40NO2'}]</t>
+          <t>[{'coa_c': 'C21H32N7O16P3S'}, {'crm_cho_c': 'C18H36NO2RCO'}, {'h_c': 'H'}, {'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'sphings_c': 'C18H38NO2'}]</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1, 'R': 1}</t>
+          <t>{'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>HMR_0758</t>
+          <t>HMR_8211</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>coa_c + crm_cho_c + h_c --&gt; Rtotal2coa_c + sphings_c</t>
+          <t>crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>[{'coa_c': 'C21H32N7O16P3S'}, {'crm_cho_c': 'C18H36NO2RCO'}, {'h_c': 'H'}, {'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'sphings_c': 'C18H38NO2'}]</t>
+          <t>[{'crm_cho_l': 'C18H36NO2RCO'}, {'h2o_l': 'H2O'}, {'h_l': 'H'}, {'Rtotal2_l': 'CO2R2'}, {'sphings_l': 'C18H38NO2'}]</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>{'R': 1}</t>
+          <t>{'charge': -1, 'H': -1, 'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>HMR_8211</t>
+          <t>DOPACCL</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
+          <t>dopaqn_c --&gt; leukamchr_c</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>[{'crm_cho_l': 'C18H36NO2RCO'}, {'h2o_l': 'H2O'}, {'h_l': 'H'}, {'Rtotal2_l': 'CO2R2'}, {'sphings_l': 'C18H38NO2'}]</t>
+          <t>[{'dopaqn_c': 'C9H9NO4'}, {'leukamchr_c': 'C9H8NO4'}]</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1, 'R': 1}</t>
+          <t>{'charge': -1, 'H': -1}</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>DOPACCL</t>
+          <t>DOPAOQCYS</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>dopaqn_c --&gt; leukamchr_c</t>
+          <t>cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>[{'dopaqn_c': 'C9H9NO4'}, {'leukamchr_c': 'C9H8NO4'}]</t>
+          <t>[{'cys_L_c': 'C3H7NO2S'}, {'dopaqn_c': 'C9H9NO4'}, {'5cysdopa_c': 'C11H17N2O4S'}]</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1}</t>
+          <t>{'charge': 1, 'C': -1, 'H': 1, 'O': -2}</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>DOPAOQCYS</t>
+          <t>GLUTCOAm</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
+          <t>glutcoa_m + h2o_m --&gt; 2hog_m + coa_m + h_m</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>[{'cys_L_c': 'C3H7NO2S'}, {'dopaqn_c': 'C9H9NO4'}, {'5cysdopa_c': 'C11H17N2O4S'}]</t>
+          <t>[{'glutcoa_m': 'C26H37N7O19P3S'}, {'h2o_m': 'H2O'}, {'2hog_m': 'C5H8O5'}, {'coa_m': 'C21H32N7O16P3S'}, {'h_m': 'H'}]</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'C': -1, 'H': 1, 'O': -2}</t>
+          <t>{'H': 2, 'O': 1}</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>GLUTCOAm</t>
+          <t>NWHARGOR</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>glutcoa_m + h2o_m --&gt; 2hog_m + coa_m + h_m</t>
+          <t>2.0 nwharg_c + o2_c &lt;=&gt; 2.0 citr_L_c + 2.0 no_c</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>[{'glutcoa_m': 'C26H37N7O19P3S'}, {'h2o_m': 'H2O'}, {'2hog_m': 'C5H8O5'}, {'coa_m': 'C21H32N7O16P3S'}, {'h_m': 'H'}]</t>
+          <t>[{'nwharg_c': 'C6H15N4O3'}, {'o2_c': 'O2'}, {'citr_L_c': 'C6H13N3O3'}, {'no_c': 'NO'}]</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>{'H': 2, 'O': 1}</t>
+          <t>{'charge': -2.0, 'H': -4.0}</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>NWHARGOR</t>
+          <t>THP2CDH</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2.0 nwharg_c + o2_c &lt;=&gt; 2.0 citr_L_c + 2.0 no_c</t>
+          <t>h2o_c + nad_c + thp2c_c &lt;=&gt; L2aadp6sa_c + 2.0 h_c + nadh_c</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>[{'nwharg_c': 'C6H15N4O3'}, {'o2_c': 'O2'}, {'citr_L_c': 'C6H13N3O3'}, {'no_c': 'NO'}]</t>
+          <t>[{'h2o_c': 'H2O'}, {'nad_c': 'C21H26N7O14P2'}, {'thp2c_c': 'C6H8NO2'}, {'L2aadp6sa_c': 'C6H11NO3'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}]</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>{'charge': -2.0, 'H': -4.0}</t>
+          <t>{'charge': 2.0, 'H': 4.0}</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>THP2CDH</t>
+          <t>HMR_4241</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>h2o_c + nad_c + thp2c_c &lt;=&gt; L2aadp6sa_c + 2.0 h_c + nadh_c</t>
+          <t>Nmelys_n + ahcys_n &lt;=&gt; M02127_n + amet_n</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>[{'h2o_c': 'H2O'}, {'nad_c': 'C21H26N7O14P2'}, {'thp2c_c': 'C6H8NO2'}, {'L2aadp6sa_c': 'C6H11NO3'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}]</t>
+          <t>[{'Nmelys_n': 'CH4X'}, {'ahcys_n': 'C14H20N6O5S'}, {'M02127_n': 'C7H13N3O2R2'}, {'amet_n': 'C15H23N6O5S'}]</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>{'charge': 2.0, 'H': 4.0}</t>
+          <t>{'C': 7, 'H': 12, 'X': -1, 'N': 3, 'O': 2, 'R': 2}</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>HMR_4241</t>
+          <t>HMR_6975</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Nmelys_n + ahcys_n &lt;=&gt; M02127_n + amet_n</t>
+          <t>amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>[{'Nmelys_n': 'CH4X'}, {'ahcys_n': 'C14H20N6O5S'}, {'M02127_n': 'C7H13N3O2R2'}, {'amet_n': 'C15H23N6O5S'}]</t>
+          <t>[{'amet_c': 'C15H23N6O5S'}, {'peplys_c': 'XH'}, {'M00213_c': 'C8H15N3O2R2'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>{'C': 7, 'H': 12, 'X': -1, 'N': 3, 'O': 2, 'R': 2}</t>
+          <t>{'charge': -1, 'C': 7, 'H': 11, 'N': 3, 'O': 2, 'X': -1, 'R': 2}</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>HMR_6975</t>
+          <t>HMR_6976</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
+          <t>M00213_c + amet_c --&gt; Ndmelys_c + ahcys_c</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>[{'amet_c': 'C15H23N6O5S'}, {'peplys_c': 'XH'}, {'M00213_c': 'C8H15N3O2R2'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
+          <t>[{'M00213_c': 'C8H15N3O2R2'}, {'amet_c': 'C15H23N6O5S'}, {'Ndmelys_c': 'C2H7X'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': 7, 'H': 11, 'N': 3, 'O': 2, 'X': -1, 'R': 2}</t>
+          <t>{'charge': 1, 'C': -7, 'H': -11, 'N': -3, 'O': -2, 'R': -2, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>HMR_6976</t>
+          <t>HMR_6978</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>M00213_c + amet_c --&gt; Ndmelys_c + ahcys_c</t>
+          <t>Ntmelys_c + h2o_c --&gt; h_c + tmlys_c</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>[{'M00213_c': 'C8H15N3O2R2'}, {'amet_c': 'C15H23N6O5S'}, {'Ndmelys_c': 'C2H7X'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
+          <t>[{'Ntmelys_c': 'C3H10X'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'tmlys_c': 'C9H20N2O2'}]</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'C': -7, 'H': -11, 'N': -3, 'O': -2, 'R': -2, 'X': 1}</t>
+          <t>{'charge': -1, 'C': 6, 'H': 9, 'X': -1, 'O': 1, 'N': 2}</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>HMR_6978</t>
+          <t>HMR_6983</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Ntmelys_c + h2o_c --&gt; h_c + tmlys_c</t>
+          <t>akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>[{'Ntmelys_c': 'C3H10X'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'tmlys_c': 'C9H20N2O2'}]</t>
+          <t>[{'akg_c': 'C5H4O5'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'peplys_c': 'XH'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'co2_c': 'CO2'}, {'h2o_c': 'H2O'}, {'succ_c': 'C4H4O4'}]</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': 6, 'H': 9, 'X': -1, 'O': 1, 'N': 2}</t>
+          <t>{'charge': -1, 'C': 6, 'H': 14, 'O': 3, 'X': -1, 'N': 2}</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>HMR_6983</t>
+          <t>HMR_6984</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
+          <t>pcollg5hlys_c + udpgal_c --&gt; M01036_c + h_c + udp_c</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'peplys_c': 'XH'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'co2_c': 'CO2'}, {'h2o_c': 'H2O'}, {'succ_c': 'C4H4O4'}]</t>
+          <t>[{'pcollg5hlys_c': 'C6H14N2O3'}, {'udpgal_c': 'C15H22N2O17P2'}, {'M01036_c': 'C13H23N3O8R2'}, {'h_c': 'H'}, {'udp_c': 'C9H11N2O12P2'}]</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': 6, 'H': 14, 'O': 3, 'X': -1, 'N': 2}</t>
+          <t>{'C': 1, 'H': -1, 'N': 1, 'R': 2}</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>HMR_6984</t>
+          <t>HOLYSK</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>pcollg5hlys_c + udpgal_c --&gt; M01036_c + h_c + udp_c</t>
+          <t>gtp_c + pcollg5hlys_c --&gt; gdp_c + h_c + pholys_c</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>[{'pcollg5hlys_c': 'C6H14N2O3'}, {'udpgal_c': 'C15H22N2O17P2'}, {'M01036_c': 'C13H23N3O8R2'}, {'h_c': 'H'}, {'udp_c': 'C9H11N2O12P2'}]</t>
+          <t>[{'gtp_c': 'C10H12N5O14P3'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'gdp_c': 'C10H12N5O11P2'}, {'h_c': 'H'}, {'pholys_c': 'C6H14N2O6P'}]</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>{'C': 1, 'H': -1, 'N': 1, 'R': 2}</t>
+          <t>{'charge': 1, 'H': 1}</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>HOLYSK</t>
+          <t>PCLYSOX</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>gtp_c + pcollg5hlys_c --&gt; gdp_c + h_c + pholys_c</t>
+          <t>akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>[{'gtp_c': 'C10H12N5O14P3'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'gdp_c': 'C10H12N5O11P2'}, {'h_c': 'H'}, {'pholys_c': 'C6H14N2O6P'}]</t>
+          <t>[{'akg_c': 'C5H4O5'}, {'o2_c': 'O2'}, {'pcollglys_c': 'C7H14N3O2R2'}, {'co2_c': 'CO2'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'succ_c': 'C4H4O4'}]</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'H': 1}</t>
+          <t>{'charge': -1, 'C': -1, 'N': -1, 'R': -2}</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>PCLYSOX</t>
+          <t>PLYSPSer</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
+          <t>Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'o2_c': 'O2'}, {'pcollglys_c': 'C7H14N3O2R2'}, {'co2_c': 'CO2'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'succ_c': 'C4H4O4'}]</t>
+          <t>[{'Ntmelys_r': 'C3H10X'}, {'h2o_r': 'H2O'}, {'pepslys_r': 'X'}, {'tmlys_r': 'C9H21N2O2'}]</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': -1, 'N': -1, 'R': -2}</t>
+          <t>{'charge': -2, 'C': 6, 'H': 9, 'O': 1, 'N': 2}</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>PLYSPSer</t>
+          <t>TMLYSOX</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
+          <t>akg_c + o2_c + tmlys_c --&gt; 3htmelys_c + co2_c + succ_c</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>[{'Ntmelys_r': 'C3H10X'}, {'h2o_r': 'H2O'}, {'pepslys_r': 'X'}, {'tmlys_r': 'C9H21N2O2'}]</t>
+          <t>[{'akg_c': 'C5H4O5'}, {'o2_c': 'O2'}, {'tmlys_c': 'C9H20N2O2'}, {'3htmelys_c': 'C9H20N2O3'}, {'co2_c': 'CO2'}, {'succ_c': 'C4H4O4'}]</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>{'charge': -2, 'C': 6, 'H': 9, 'O': 1, 'N': 2}</t>
+          <t>{'charge': -1}</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>TMLYSOX</t>
+          <t>GapFill-R03595</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>akg_c + o2_c + tmlys_c --&gt; 3htmelys_c + co2_c + succ_c</t>
+          <t>atp_c + h2o_c + seln_c &lt;=&gt; amp_c + pi_c + selnp_c</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'o2_c': 'O2'}, {'tmlys_c': 'C9H20N2O2'}, {'3htmelys_c': 'C9H20N2O3'}, {'co2_c': 'CO2'}, {'succ_c': 'C4H4O4'}]</t>
+          <t>[{'h2o_c': 'H2O'}, {'atp_c': 'C10H12N5O13P3'}, {'seln_c': 'HSe'}, {'amp_c': 'C10H12N5O7P'}, {'selnp_c': 'O3PSe'}, {'pi_c': 'HO4P'}]</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>{'charge': -1}</t>
+          <t>{'charge': -2, 'H': -2}</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>GapFill-R03595</t>
+          <t>GapFill-R03599</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>atp_c + h2o_c + seln_c &lt;=&gt; amp_c + pi_c + selnp_c</t>
+          <t>focytC_m + selcys_c &lt;=&gt; ala_L_c + ficytC_m + seln_c</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>[{'h2o_c': 'H2O'}, {'atp_c': 'C10H12N5O13P3'}, {'seln_c': 'HSe'}, {'amp_c': 'C10H12N5O7P'}, {'selnp_c': 'O3PSe'}, {'pi_c': 'HO4P'}]</t>
+          <t>[{'selcys_c': 'C3H7NO2Se'}, {'focytC_m': 'C42H54FeN8O6S2'}, {'ala_L_c': 'C3H7NO2'}, {'seln_c': 'HSe'}, {'ficytC_m': 'C42H54FeN8O6S2'}]</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>{'charge': -2, 'H': -2}</t>
+          <t>{'H': 1}</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>GapFill-R03599</t>
+          <t>HMR_7131</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>focytC_m + selcys_c &lt;=&gt; ala_L_c + ficytC_m + seln_c</t>
+          <t>4.0 h_c + 3.0 nadph_c + selni_c &lt;=&gt; 3.0 h2o_c + 3.0 nadp_c + seln_c</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>[{'selcys_c': 'C3H7NO2Se'}, {'focytC_m': 'C42H54FeN8O6S2'}, {'ala_L_c': 'C3H7NO2'}, {'seln_c': 'HSe'}, {'ficytC_m': 'C42H54FeN8O6S2'}]</t>
+          <t>[{'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'selni_c': 'SeO3'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'seln_c': 'HSe'}]</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>{'H': 1}</t>
+          <t>{'charge': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>HMR_7131</t>
+          <t>r0647</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>4.0 h_c + 3.0 nadph_c + selni_c &lt;=&gt; 3.0 h2o_c + 3.0 nadp_c + seln_c</t>
+          <t>42A3HP24DB_c &lt;=&gt; C02470_c + h2o_c</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'selni_c': 'SeO3'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'seln_c': 'HSe'}]</t>
+          <t>[{'42A3HP24DB_c': 'C10H8NO5'}, {'h2o_c': 'H2O'}, {'C02470_c': 'C10H6NO4'}]</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>{'charge': -2.0}</t>
+          <t>{'charge': 1}</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>r0647</t>
+          <t>MMCD</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>42A3HP24DB_c &lt;=&gt; C02470_c + h2o_c</t>
+          <t>h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>[{'42A3HP24DB_c': 'C10H8NO5'}, {'h2o_c': 'H2O'}, {'C02470_c': 'C10H6NO4'}]</t>
+          <t>[{'h_c': 'H'}, {'mmcoa_S_c': 'C25H35N7O19P3S'}, {'co2_c': 'CO2'}, {'ppcoa_c': 'C24H36N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>{'charge': 1}</t>
+          <t>{'charge': -5}</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>MMCD</t>
+          <t>RE1266C</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
+          <t>4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'mmcoa_S_c': 'C25H35N7O19P3S'}, {'co2_c': 'CO2'}, {'ppcoa_c': 'C24H36N7O17P3S'}]</t>
+          <t>[{'4mop_c': 'C6H9O3'}, {'o2_c': 'O2'}, {'CE2028_c': 'C5H8O3'}, {'co2_c': 'CO2'}]</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>{'charge': -5}</t>
+          <t>{'H': -1}</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>RE1266C</t>
+          <t>HGDm</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
+          <t>2hog_m + fad_m --&gt; akg_m + fadh2_m</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>[{'4mop_c': 'C6H9O3'}, {'o2_c': 'O2'}, {'CE2028_c': 'C5H8O3'}, {'co2_c': 'CO2'}]</t>
+          <t>[{'2hog_m': 'C5H8O5'}, {'fad_m': 'C27H31N9O15P2'}, {'akg_m': 'C5H4O5'}, {'fadh2_m': 'C27H33N9O15P2'}]</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>{'H': -1}</t>
+          <t>{'H': -2}</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>HGDm</t>
+          <t>HMR_0718</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2hog_m + fad_m --&gt; akg_m + fadh2_m</t>
+          <t>akg_c + fadh2_c --&gt; 2hog_c + fad_c</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>[{'2hog_m': 'C5H8O5'}, {'fad_m': 'C27H31N9O15P2'}, {'akg_m': 'C5H4O5'}, {'fadh2_m': 'C27H33N9O15P2'}]</t>
+          <t>[{'akg_c': 'C5H4O5'}, {'fadh2_c': 'C27H33N9O15P2'}, {'2hog_c': 'C5H8O5'}, {'fad_c': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>{'H': -2}</t>
+          <t>{'charge': 2, 'H': 2}</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>HMR_0718</t>
+          <t>HMR_0719</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>akg_c + fadh2_c --&gt; 2hog_c + fad_c</t>
+          <t>akg_c + h_c + nadh_c --&gt; 2hog_c + nad_c</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'fadh2_c': 'C27H33N9O15P2'}, {'2hog_c': 'C5H8O5'}, {'fad_c': 'C27H31N9O15P2'}]</t>
+          <t>[{'akg_c': 'C5H4O5'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}, {'2hog_c': 'C5H8O5'}, {'nad_c': 'C21H26N7O14P2'}]</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -16782,176 +16782,176 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>HMR_0719</t>
+          <t>FAH3</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>akg_c + h_c + nadh_c --&gt; 2hog_c + nad_c</t>
+          <t>h_c + hdca_c + nadph_c + o2_c --&gt; h2o_c + nadp_c + whhdca_c</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}, {'2hog_c': 'C5H8O5'}, {'nad_c': 'C21H26N7O14P2'}]</t>
+          <t>[{'h_c': 'H'}, {'hdca_c': 'C16H31O2'}, {'nadph_c': 'C21H26N7O17P3'}, {'o2_c': 'O2'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'whhdca_c': 'C16H30O3'}]</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>{'charge': 2, 'H': 2}</t>
+          <t>{'H': -1}</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>FAH3</t>
+          <t>HMR_8378</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>h_c + hdca_c + nadph_c + o2_c --&gt; h2o_c + nadp_c + whhdca_c</t>
+          <t>M02645_c + dolp_c &lt;=&gt; Ser_Gly_Ala_X_Gly_c + dolmanp_c</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'hdca_c': 'C16H31O2'}, {'nadph_c': 'C21H26N7O17P3'}, {'o2_c': 'O2'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'whhdca_c': 'C16H30O3'}]</t>
+          <t>[{'M02645_c': 'C10H16N2O8R2'}, {'dolp_c': 'C95H155O4P'}, {'Ser_Gly_Ala_X_Gly_c': 'XH'}, {'dolmanp_c': 'C101H166O9P'}]</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>{'H': -1}</t>
+          <t>{'C': -4, 'H': -4, 'N': -2, 'O': -3, 'R': -2, 'charge': 1, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>HMR_8378</t>
+          <t>PI4P3Ker</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>M02645_c + dolp_c &lt;=&gt; Ser_Gly_Ala_X_Gly_c + dolmanp_c</t>
+          <t>atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>[{'M02645_c': 'C10H16N2O8R2'}, {'dolp_c': 'C95H155O4P'}, {'Ser_Gly_Ala_X_Gly_c': 'XH'}, {'dolmanp_c': 'C101H166O9P'}]</t>
+          <t>[{'atp_r': 'C10H12N5O13P3'}, {'pail4p_cho_r': 'C9H15O12P2RCO2R2CO2'}, {'adp_r': 'C10H12N5O10P2'}, {'h_r': 'H'}, {'pail34p_cho_r': 'C9H14O15P3RCO2R2CO2'}]</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>{'C': -4, 'H': -4, 'N': -2, 'O': -3, 'R': -2, 'charge': 1, 'X': 1}</t>
+          <t>{'charge': 5}</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>PI4P3Ker</t>
+          <t>PTA2</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
+          <t>pi_c + ppcoa_c &lt;=&gt; coa_c + ppap_c</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>[{'atp_r': 'C10H12N5O13P3'}, {'pail4p_cho_r': 'C9H15O12P2RCO2R2CO2'}, {'adp_r': 'C10H12N5O10P2'}, {'h_r': 'H'}, {'pail34p_cho_r': 'C9H14O15P3RCO2R2CO2'}]</t>
+          <t>[{'pi_c': 'HO4P'}, {'ppcoa_c': 'C24H36N7O17P3S'}, {'coa_c': 'C21H32N7O16P3S'}, {'ppap_c': 'C3H5O5P'}]</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>{'charge': 5}</t>
+          <t>{'charge': 2}</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>PTA2</t>
+          <t>peplys_synthesis</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>pi_c + ppcoa_c &lt;=&gt; coa_c + ppap_c</t>
+          <t>lys_L_n --&gt; peplys_n</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>[{'pi_c': 'HO4P'}, {'ppcoa_c': 'C24H36N7O17P3S'}, {'coa_c': 'C21H32N7O16P3S'}, {'ppap_c': 'C3H5O5P'}]</t>
+          <t>[{'lys_L_n': 'C6H15N2O2'}, {'peplys_n': 'HX'}]</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>{'charge': 2}</t>
+          <t>{'charge': -1, 'C': -6, 'H': -14, 'N': -2, 'O': -2, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>peplys_synthesis</t>
+          <t>AGLPET</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>lys_L_n --&gt; peplys_n</t>
+          <t>ak2g_cho_c + cdpea_c + h_c &lt;=&gt; ak2gpe_cho_c + cmp_c + h2o_c</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>[{'lys_L_n': 'C6H15N2O2'}, {'peplys_n': 'HX'}]</t>
+          <t>[{'ak2g_cho_c': 'C5H10O2RR2CO2'}, {'cdpea_c': 'C11H19N4O11P2'}, {'h_c': 'H'}, {'ak2gpe_cho_c': 'C7H16O5NPRR2CO'}, {'cmp_c': 'C9H12N3O8P'}, {'h2o_c': 'H2O'}]</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': -6, 'H': -14, 'N': -2, 'O': -2, 'X': 1}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>AGLPET</t>
+          <t>R10104</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>ak2g_cho_c + cdpea_c + h_c &lt;=&gt; ak2gpe_cho_c + cmp_c + h2o_c</t>
+          <t>Rtotalcoa_x + 2.0 h_x + 2.0 nadph_x &lt;=&gt; alkylR1oh_x + coa_x + 2.0 nadp_x</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>[{'ak2g_cho_c': 'C5H10O2RR2CO2'}, {'cdpea_c': 'C11H19N4O11P2'}, {'h_c': 'H'}, {'ak2gpe_cho_c': 'C7H16O5NPRR2CO'}, {'cmp_c': 'C9H12N3O8P'}, {'h2o_c': 'H2O'}]</t>
+          <t>[{'Rtotalcoa_x': 'CO2RC21H31N7O15P3S'}, {'h_x': 'H'}, {'nadph_x': 'C21H26N7O17P3'}, {'alkylR1oh_x': 'C2H5OR'}, {'coa_x': 'C21H32N7O16P3S'}, {'nadp_x': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'C': 1.0, 'H': 2.0}</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>R10104</t>
+          <t>3OXDHGLtr</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Rtotalcoa_x + 2.0 h_x + 2.0 nadph_x &lt;=&gt; alkylR1oh_x + coa_x + 2.0 nadp_x</t>
+          <t>CE4793_c &lt;=&gt; CE4793_r</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>[{'Rtotalcoa_x': 'CO2RC21H31N7O15P3S'}, {'h_x': 'H'}, {'nadph_x': 'C21H26N7O17P3'}, {'alkylR1oh_x': 'C2H5OR'}, {'coa_x': 'C21H32N7O16P3S'}, {'nadp_x': 'C21H25N7O17P3'}]</t>
+          <t>[{'CE4793_c': 'C41H62N7O18P3S'}, {'CE4793_r': 'C41H62N7O18P3S'}]</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>{'C': 1.0, 'H': 2.0}</t>
+          <t>{'charge': 4}</t>
         </is>
       </c>
     </row>

--- a/Notebooks/temp/mass_unbalanced_reactions.xlsx
+++ b/Notebooks/temp/mass_unbalanced_reactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D748"/>
+  <dimension ref="A1:D755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15555,276 +15555,276 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>adxrd_m + h_m + o2_m + xol7ah2_m --&gt; adxo_2_2_m + h2o_m + xol7ah3_m</t>
+          <t>6.0 adxrd_m + 5.0 h_m + 3.0 o2_m + xol7ah2_m --&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + xol7ah3_m</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>[{'h_m': 'H'}, {'adxrd_m': 'Fe2S2X'}, {'o2_m': 'O2'}, {'xol7ah2_m': 'C27H48O2'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}, {'xol7ah3_m': 'C27H48O3'}]</t>
+          <t>[{'xol7ah2_m': 'C27H48O2'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'xol7ah3_m': 'C27H48O3'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>{'H': 1}</t>
+          <t>{'charge': 1.0, 'H': 3.0, 'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>HMR_1689</t>
+          <t>HMR_1685</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>CE0233_m + nad_m --&gt; CE5133_m + h_m + nadh_m</t>
+          <t>6.0 adxrd_m + 5.0 h_m + 3.0 o2_m + xol7ah3_m --&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + xol7ah2al_m</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>[{'CE0233_m': 'C27H48O3'}, {'nad_m': 'C21H26N7O14P2'}, {'CE5133_m': 'C27H46O5'}, {'h_m': 'H'}, {'nadh_m': 'C21H27N7O14P2'}]</t>
+          <t>[{'xol7ah3_m': 'C27H48O3'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'xol7ah2al_m': 'C27H46O3'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>{'O': 2}</t>
+          <t>{'charge': 1.0, 'H': 1.0, 'O': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>HMR_1691</t>
+          <t>HMR_1689</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>CE5133_m + h2o_m + nadp_m --&gt; dhcholestanate_m + h_m + nadph_m</t>
+          <t>CE0233_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; CE5133_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>[{'CE5133_m': 'C27H46O5'}, {'h2o_m': 'H2O'}, {'nadp_m': 'C21H25N7O17P3'}, {'dhcholestanate_m': 'C27H45O4'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}]</t>
+          <t>[{'CE0233_m': 'C27H48O3'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'CE5133_m': 'C27H46O5'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>{'H': -1, 'O': -2, 'charge': -1}</t>
+          <t>{'charge': 1.0, 'H': 1.0}</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>HMR_1703</t>
+          <t>HMR_1691</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>dhcholestancoa_x &lt;=&gt; M00617_x</t>
+          <t>CE5133_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; 6.0 adxo_2_2_m + dhcholestanate_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>[{'dhcholestancoa_x': 'C48H76N7O19P3S'}, {'M00617_x': 'C48H76N7O19P3S'}]</t>
+          <t>[{'CE5133_m': 'C27H46O5'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'dhcholestanate_m': 'C27H45O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>{'charge': 4}</t>
+          <t>{'H': 2.0, 'O': -3.0}</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>HMR_1704</t>
+          <t>HMR_1703</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>M00617_x + o2_x --&gt; dhcholoylcoa_x + h2o2_x</t>
+          <t>dhcholestancoa_x &lt;=&gt; M00617_x</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>[{'M00617_x': 'C48H76N7O19P3S'}, {'o2_x': 'O2'}, {'dhcholoylcoa_x': 'C48H74N7O19P3S'}, {'h2o2_x': 'H2O2'}]</t>
+          <t>[{'dhcholestancoa_x': 'C48H76N7O19P3S'}, {'M00617_x': 'C48H76N7O19P3S'}]</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>{'charge': -4}</t>
+          <t>{'charge': 4}</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>HMR_1708</t>
+          <t>HMR_1704</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>nad_x + thcholoylcoa_x --&gt; M00754_x + h_x + nadh_x</t>
+          <t>M00617_x + o2_x --&gt; dhcholoylcoa_x + h2o2_x</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>[{'nad_x': 'C21H26N7O14P2'}, {'thcholoylcoa_x': 'C48H76N7O20P3S'}, {'M00754_x': 'C48H74N7O20P3S'}, {'h_x': 'H'}, {'nadh_x': 'C21H27N7O14P2'}]</t>
+          <t>[{'M00617_x': 'C48H76N7O19P3S'}, {'o2_x': 'O2'}, {'dhcholoylcoa_x': 'C48H74N7O19P3S'}, {'h2o2_x': 'H2O2'}]</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>{'charge': 4}</t>
+          <t>{'charge': -4}</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>HMR_1710</t>
+          <t>HMR_1708</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>M00754_x + coa_x --&gt; dcholcoa_x + ppcoa_x</t>
+          <t>nad_x + thcholoylcoa_x --&gt; M00754_x + h_x + nadh_x</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>[{'M00754_x': 'C48H74N7O20P3S'}, {'coa_x': 'C21H32N7O16P3S'}, {'dcholcoa_x': 'C45H70N7O19P3S'}, {'ppcoa_x': 'C24H36N7O17P3S'}]</t>
+          <t>[{'nad_x': 'C21H26N7O14P2'}, {'thcholoylcoa_x': 'C48H76N7O20P3S'}, {'M00754_x': 'C48H74N7O20P3S'}, {'h_x': 'H'}, {'nadh_x': 'C21H27N7O14P2'}]</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>{'charge': -4}</t>
+          <t>{'charge': 4}</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>HMR_1730</t>
+          <t>HMR_1710</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>HC02220_c + h2o_c --&gt; C02528_c + h_c + so4_c</t>
+          <t>M00754_x + coa_x --&gt; dcholcoa_x + ppcoa_x</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>[{'HC02220_c': 'C24H38O7S'}, {'h2o_c': 'H2O'}, {'C02528_c': 'C24H39O4'}, {'h_c': 'H'}, {'so4_c': 'O4S'}]</t>
+          <t>[{'M00754_x': 'C48H74N7O20P3S'}, {'coa_x': 'C21H32N7O16P3S'}, {'dcholcoa_x': 'C45H70N7O19P3S'}, {'ppcoa_x': 'C24H36N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'charge': -4}</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>HMR_1741</t>
+          <t>HMR_1730</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>M00978_c + h_c + nadph_c --&gt; M01081_c + nadp_c</t>
+          <t>HC02220_c + h2o_c --&gt; C02528_c + h_c + so4_c</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>[{'M00978_c': 'C27H44O3'}, {'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'M01081_c': 'C27H46O4'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
+          <t>[{'HC02220_c': 'C24H38O7S'}, {'h2o_c': 'H2O'}, {'C02528_c': 'C24H39O4'}, {'h_c': 'H'}, {'so4_c': 'O4S'}]</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>{'O': 1}</t>
+          <t>{'charge': -2}</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>HMR_1743</t>
+          <t>HMR_1741</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
+          <t>M00978_c + h_c + nadph_c --&gt; M01081_c + nadp_c</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>[{'M01081_c': 'C27H46O4'}, {'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'M01080_c': 'C27H48O3'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
+          <t>[{'M00978_c': 'C27H44O3'}, {'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'M01081_c': 'C27H46O4'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>{'O': -1}</t>
+          <t>{'O': 1}</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>HMR_1750</t>
+          <t>HMR_1743</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>M00746_m + 3.0 h_m + nadph_m + o2_m --&gt; M02977_m + h2o_m + nadp_m</t>
+          <t>M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>[{'M00746_m': 'C27H46O5'}, {'h_m': 'H'}, {'nadph_m': 'C21H26N7O17P3'}, {'o2_m': 'O2'}, {'M02977_m': 'C27H47O4'}, {'h2o_m': 'H2O'}, {'nadp_m': 'C21H25N7O17P3'}]</t>
+          <t>[{'M01081_c': 'C27H46O4'}, {'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'M01080_c': 'C27H48O3'}, {'nadp_c': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>{'charge': -3.0, 'H': -1.0, 'O': -2}</t>
+          <t>{'O': -1}</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>HMR_1754</t>
+          <t>HMR_1746</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
+          <t>M01077_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01076_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>[{'M02977_c': 'C27H47O4'}, {'atp_c': 'C10H12N5O13P3'}, {'coa_c': 'C21H32N7O16P3S'}, {'M00615_c': 'C48H76N7O21P3S'}, {'amp_c': 'C10H12N5O7P'}, {'h2o_c': 'H2O'}, {'ppi_c': 'HO7P2'}]</t>
+          <t>[{'M01077_m': 'C27H48O4'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'M01076_m': 'C27H48O5'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>{'O': 3}</t>
+          <t>{'charge': 1.0, 'H': 3.0, 'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>HMR_1786</t>
+          <t>HMR_1747</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>6.0 adxrd_c + chsterol_c + 5.0 h_c + 3.0 o2_c &lt;=&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + xol27oh_c</t>
+          <t>M01080_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01079_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>[{'chsterol_c': 'C27H46O'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'xol27oh_c': 'C27H46O2'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
+          <t>[{'M01080_m': 'C27H48O3'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'M01079_m': 'C27H48O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -15836,413 +15836,413 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>HMR_1800</t>
+          <t>HMR_1748</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>6.0 adxrd_c + 5.0 h_c + 3.0 o2_c + xoltri27_m --&gt; CE3038_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+          <t>M01076_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M00746_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>[{'xoltri27_m': 'C27H46O3'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'CE3038_m': 'C27H43O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
+          <t>[{'M01076_m': 'C27H48O5'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'M00746_m': 'C27H46O5'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>{'O': -1.0}</t>
+          <t>{'charge': 1.0, 'H': 1.0, 'O': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>r0698</t>
+          <t>HMR_1749</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>dcholcoa_x + 4.0 h_x + ppcoa_x --&gt; coa_x + dhcholestancoa_x + h2o_x</t>
+          <t>M01079_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M00753_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>[{'dcholcoa_x': 'C45H70N7O19P3S'}, {'h_x': 'H'}, {'ppcoa_x': 'C24H36N7O17P3S'}, {'coa_x': 'C21H32N7O16P3S'}, {'dhcholestancoa_x': 'C48H76N7O19P3S'}, {'h2o_x': 'H2O'}]</t>
+          <t>[{'M01079_m': 'C27H48O4'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'M00753_m': 'C27H46O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>{'charge': -4.0}</t>
+          <t>{'charge': 1.0, 'H': 1.0, 'O': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>r0741</t>
+          <t>HMR_1750</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>6.0 adxrd_c + 5.0 h_c + 3.0 o2_c + xoltriol_c --&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + xoltetrol_c</t>
+          <t>M00746_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M02977_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>[{'xoltriol_c': 'C27H48O3'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'xoltetrol_c': 'C27H48O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
+          <t>[{'M00746_m': 'C27H46O5'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'M02977_m': 'C27H47O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>{'charge': 1.0, 'H': 3.0, 'O': -1.0}</t>
+          <t>{'H': 4.0, 'O': -3.0}</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>RE1804M</t>
+          <t>HMR_1751</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>6.0 adxrd_c + 5.0 h_c + 3.0 o2_c + xol7ah3_m &lt;=&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + xol7ah2al_m</t>
+          <t>M00753_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M00742_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>[{'xol7ah3_m': 'C27H48O3'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'xol7ah2al_m': 'C27H46O3'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
+          <t>[{'M00753_m': 'C27H46O4'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'M00742_m': 'C27H45O5'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>{'charge': 1.0, 'H': 1.0, 'O': -2.0}</t>
+          <t>{'H': 2.0, 'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>RE1826M</t>
+          <t>HMR_1754</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>6.0 adxrd_c + 5.0 h_c + 3.0 o2_c + xol7ah2_m --&gt; CE0233_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+          <t>M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>[{'xol7ah2_m': 'C27H48O2'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'CE0233_m': 'C27H48O3'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
+          <t>[{'M02977_c': 'C27H47O4'}, {'atp_c': 'C10H12N5O13P3'}, {'coa_c': 'C21H32N7O16P3S'}, {'M00615_c': 'C48H76N7O21P3S'}, {'amp_c': 'C10H12N5O7P'}, {'h2o_c': 'H2O'}, {'ppi_c': 'HO7P2'}]</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>{'charge': 1.0, 'H': 3.0, 'O': -1.0}</t>
+          <t>{'O': 3}</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>RE1836M</t>
+          <t>HMR_1786</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>coa_m + dhcholestancoa_m + o2_m &lt;=&gt; dcholcoa_m + h2o_m + ppcoa_m</t>
+          <t>6.0 adxrd_c + chsterol_c + 5.0 h_c + 3.0 o2_c &lt;=&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + xol27oh_c</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'dhcholestancoa_m': 'C48H76N7O19P3S'}, {'o2_m': 'O2'}, {'dcholcoa_m': 'C45H70N7O19P3S'}, {'h2o_m': 'H2O'}, {'ppcoa_m': 'C24H36N7O17P3S'}]</t>
+          <t>[{'chsterol_c': 'C27H46O'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'xol27oh_c': 'C27H46O2'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>{'charge': -4}</t>
+          <t>{'charge': 1.0, 'H': 3.0, 'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>RE2625M</t>
+          <t>HMR_1800</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>6.0 adxrd_c + 5.0 h_c + 3.0 o2_c + xoltetrol_m &lt;=&gt; CE4872_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+          <t>6.0 adxrd_m + 5.0 h_m + 3.0 o2_m + xoltri27_m --&gt; CE3038_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>[{'xoltetrol_m': 'C27H48O4'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'CE4872_m': 'C27H46O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
+          <t>[{'xoltri27_m': 'C27H46O3'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'CE3038_m': 'C27H43O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>{'charge': 1.0, 'H': 1.0, 'O': -2.0}</t>
+          <t>{'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>RE2626C</t>
+          <t>P45027A1m</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>CE4872_c + 6.0 adxrd_c + 5.0 h_c + 3.0 o2_c &lt;=&gt; 6.0 adxo_2_2_c + 4.0 h2o_c + thcholstoic_c</t>
+          <t>6.0 adxrd_m + chsterol_m + 5.0 h_m + 3.0 o2_m --&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + xol27oh_m</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>[{'CE4872_c': 'C27H46O4'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'h2o_c': 'H2O'}, {'thcholstoic_c': 'C27H45O5'}, {'adxo_2_2_c': 'Fe2S2X'}]</t>
+          <t>[{'chsterol_m': 'C27H46O'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'xol27oh_m': 'C27H46O2'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>{'H': 2.0, 'O': -1.0}</t>
+          <t>{'charge': 1.0, 'H': 3.0, 'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>RE2626M</t>
+          <t>r0698</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>CE4872_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m &lt;=&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + thcholstoic_m</t>
+          <t>dcholcoa_x + 4.0 h_x + ppcoa_x --&gt; coa_x + dhcholestancoa_x + h2o_x</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>[{'CE4872_m': 'C27H46O4'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'h2o_m': 'H2O'}, {'thcholstoic_m': 'C27H45O5'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
+          <t>[{'dcholcoa_x': 'C45H70N7O19P3S'}, {'h_x': 'H'}, {'ppcoa_x': 'C24H36N7O17P3S'}, {'coa_x': 'C21H32N7O16P3S'}, {'dhcholestancoa_x': 'C48H76N7O19P3S'}, {'h2o_x': 'H2O'}]</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>{'H': 2.0, 'O': -1.0}</t>
+          <t>{'charge': -4.0}</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>GapFill-R03354</t>
+          <t>r0741</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>gluside_cho_c + udpgal_c &lt;=&gt; lside_c + udp_c</t>
+          <t>6.0 adxrd_c + 5.0 h_c + 3.0 o2_c + xoltriol_c --&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + xoltetrol_c</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>[{'udpgal_c': 'C15H22N2O17P2'}, {'gluside_cho_c': 'C24H46NO7RCO'}, {'udp_c': 'C9H11N2O12P2'}, {'lside_c': 'C31H56NO13R'}]</t>
+          <t>[{'xoltriol_c': 'C27H48O3'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'xoltetrol_c': 'C27H48O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1}</t>
+          <t>{'charge': 1.0, 'H': 3.0, 'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>GapFill-R03488</t>
+          <t>RE1804M</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>cmpacna_g + lside_g &lt;=&gt; cmp_g + gm3_cho_g</t>
+          <t>6.0 adxrd_c + 5.0 h_c + 3.0 o2_c + xol7ah3_m &lt;=&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + xol7ah2al_m</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>[{'cmpacna_g': 'C20H29N4O16P'}, {'lside_g': 'C31H56NO13R'}, {'cmp_g': 'C9H12N3O8P'}, {'gm3_cho_g': 'C41H72N2O20RCO'}]</t>
+          <t>[{'xol7ah3_m': 'C27H48O3'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'xol7ah2al_m': 'C27H46O3'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1}</t>
+          <t>{'charge': 1.0, 'H': 1.0, 'O': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>GapFill-R04583</t>
+          <t>RE1826M</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>cmpacna_g + gm3_cho_g &lt;=&gt; cmp_g + gd3_cho_g</t>
+          <t>6.0 adxrd_c + 5.0 h_c + 3.0 o2_c + xol7ah2_m --&gt; CE0233_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>[{'cmpacna_g': 'C20H29N4O16P'}, {'gm3_cho_g': 'C41H72N2O20RCO'}, {'cmp_g': 'C9H12N3O8P'}, {'gd3_cho_g': 'C52H88N3O28RCO'}]</t>
+          <t>[{'xol7ah2_m': 'C27H48O2'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'CE0233_m': 'C27H48O3'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1}</t>
+          <t>{'charge': 1.0, 'H': 3.0, 'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>HMR_0716</t>
+          <t>RE1836M</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>M02748_c + h2o_c + h_c --&gt; Rtotal2_c + phsphings_c</t>
+          <t>coa_m + dhcholestancoa_m + o2_m &lt;=&gt; dcholcoa_m + h2o_m + ppcoa_m</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>[{'M02748_c': 'C19H38NO4R'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'Rtotal2_c': 'CO2R2'}, {'phsphings_c': 'C18H40NO3'}]</t>
+          <t>[{'coa_m': 'C21H32N7O16P3S'}, {'dhcholestancoa_m': 'C48H76N7O19P3S'}, {'o2_m': 'O2'}, {'dcholcoa_m': 'C45H70N7O19P3S'}, {'h2o_m': 'H2O'}, {'ppcoa_m': 'C24H36N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>{'H': -1, 'R': 1, 'charge': -1}</t>
+          <t>{'charge': -4}</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>HMR_0733</t>
+          <t>RE2625M</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
+          <t>6.0 adxrd_c + 5.0 h_c + 3.0 o2_c + xoltetrol_m &lt;=&gt; CE4872_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>[{'coa_g': 'C21H32N7O16P3S'}, {'crm_cho_g': 'C18H36NO2RCO'}, {'h_g': 'H'}, {'Rtotal2coa_g': 'CO2R2C21H31N7O15P3S'}, {'sphings_g': 'C18H38NO2'}]</t>
+          <t>[{'xoltetrol_m': 'C27H48O4'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'CE4872_m': 'C27H46O4'}, {'h2o_m': 'H2O'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>{'R': 1}</t>
+          <t>{'charge': 1.0, 'H': 1.0, 'O': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>HMR_0750</t>
+          <t>RE2626C</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Rtotal2coa_c + sphgn_c --&gt; coa_c + dhcrm_cho_c + h_c</t>
+          <t>CE4872_c + 6.0 adxrd_c + 5.0 h_c + 3.0 o2_c &lt;=&gt; 6.0 adxo_2_2_c + 4.0 h2o_c + thcholstoic_c</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>[{'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'sphgn_c': 'C18H40NO2'}, {'coa_c': 'C21H32N7O16P3S'}, {'dhcrm_cho_c': 'C18H38NO2RCO'}, {'h_c': 'H'}]</t>
+          <t>[{'CE4872_c': 'C27H46O4'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'adxrd_c': 'Fe2S2X'}, {'h2o_c': 'H2O'}, {'thcholstoic_c': 'C27H45O5'}, {'adxo_2_2_c': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>{'R': -1}</t>
+          <t>{'H': 2.0, 'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>HMR_0753</t>
+          <t>RE2626M</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>dhcrm_cho_c + h2o_c + h_c &lt;=&gt; Rtotal2_c + sphgn_c</t>
+          <t>CE4872_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m &lt;=&gt; 6.0 adxo_2_2_m + 4.0 h2o_m + thcholstoic_m</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>[{'dhcrm_cho_c': 'C18H38NO2RCO'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'Rtotal2_c': 'CO2R2'}, {'sphgn_c': 'C18H40NO2'}]</t>
+          <t>[{'CE4872_m': 'C27H46O4'}, {'h_m': 'H'}, {'o2_m': 'O2'}, {'adxrd_m': 'Fe2S2X'}, {'h2o_m': 'H2O'}, {'thcholstoic_m': 'C27H45O5'}, {'adxo_2_2_m': 'Fe2S2X'}]</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1, 'R': 1}</t>
+          <t>{'H': 2.0, 'O': -1.0}</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>HMR_0758</t>
+          <t>GapFill-R03354</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>coa_c + crm_cho_c + h_c --&gt; Rtotal2coa_c + sphings_c</t>
+          <t>gluside_cho_c + udpgal_c &lt;=&gt; lside_c + udp_c</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>[{'coa_c': 'C21H32N7O16P3S'}, {'crm_cho_c': 'C18H36NO2RCO'}, {'h_c': 'H'}, {'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'sphings_c': 'C18H38NO2'}]</t>
+          <t>[{'udpgal_c': 'C15H22N2O17P2'}, {'gluside_cho_c': 'C24H46NO7RCO'}, {'udp_c': 'C9H11N2O12P2'}, {'lside_c': 'C31H56NO13R'}]</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>{'R': 1}</t>
+          <t>{'charge': -1, 'H': -1}</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>HMR_8211</t>
+          <t>GapFill-R03488</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
+          <t>cmpacna_g + lside_g &lt;=&gt; cmp_g + gm3_cho_g</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>[{'crm_cho_l': 'C18H36NO2RCO'}, {'h2o_l': 'H2O'}, {'h_l': 'H'}, {'Rtotal2_l': 'CO2R2'}, {'sphings_l': 'C18H38NO2'}]</t>
+          <t>[{'cmpacna_g': 'C20H29N4O16P'}, {'lside_g': 'C31H56NO13R'}, {'cmp_g': 'C9H12N3O8P'}, {'gm3_cho_g': 'C41H72N2O20RCO'}]</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'H': -1, 'R': 1}</t>
+          <t>{'charge': -1, 'H': -1}</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>DOPACCL</t>
+          <t>GapFill-R04583</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>dopaqn_c --&gt; leukamchr_c</t>
+          <t>cmpacna_g + gm3_cho_g &lt;=&gt; cmp_g + gd3_cho_g</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>[{'dopaqn_c': 'C9H9NO4'}, {'leukamchr_c': 'C9H8NO4'}]</t>
+          <t>[{'cmpacna_g': 'C20H29N4O16P'}, {'gm3_cho_g': 'C41H72N2O20RCO'}, {'cmp_g': 'C9H12N3O8P'}, {'gd3_cho_g': 'C52H88N3O28RCO'}]</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -16254,636 +16254,790 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>DOPAOQCYS</t>
+          <t>HMR_0716</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
+          <t>M02748_c + h2o_c + h_c --&gt; Rtotal2_c + phsphings_c</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>[{'cys_L_c': 'C3H7NO2S'}, {'dopaqn_c': 'C9H9NO4'}, {'5cysdopa_c': 'C11H17N2O4S'}]</t>
+          <t>[{'M02748_c': 'C19H38NO4R'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'Rtotal2_c': 'CO2R2'}, {'phsphings_c': 'C18H40NO3'}]</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'C': -1, 'H': 1, 'O': -2}</t>
+          <t>{'H': -1, 'R': 1, 'charge': -1}</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>NWHARGOR</t>
+          <t>HMR_0733</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2.0 nwharg_c + o2_c &lt;=&gt; 2.0 citr_L_c + 2.0 no_c</t>
+          <t>coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>[{'nwharg_c': 'C6H15N4O3'}, {'o2_c': 'O2'}, {'citr_L_c': 'C6H13N3O3'}, {'no_c': 'NO'}]</t>
+          <t>[{'coa_g': 'C21H32N7O16P3S'}, {'crm_cho_g': 'C18H36NO2RCO'}, {'h_g': 'H'}, {'Rtotal2coa_g': 'CO2R2C21H31N7O15P3S'}, {'sphings_g': 'C18H38NO2'}]</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>{'charge': -2.0, 'H': -4.0}</t>
+          <t>{'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>THP2CDH</t>
+          <t>HMR_0750</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>h2o_c + nad_c + thp2c_c &lt;=&gt; L2aadp6sa_c + 2.0 h_c + nadh_c</t>
+          <t>Rtotal2coa_c + sphgn_c --&gt; coa_c + dhcrm_cho_c + h_c</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>[{'h2o_c': 'H2O'}, {'nad_c': 'C21H26N7O14P2'}, {'thp2c_c': 'C6H8NO2'}, {'L2aadp6sa_c': 'C6H11NO3'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}]</t>
+          <t>[{'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'sphgn_c': 'C18H40NO2'}, {'coa_c': 'C21H32N7O16P3S'}, {'dhcrm_cho_c': 'C18H38NO2RCO'}, {'h_c': 'H'}]</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>{'charge': 2.0, 'H': 4.0}</t>
+          <t>{'R': -1}</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>HMR_4241</t>
+          <t>HMR_0753</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Nmelys_n + ahcys_n &lt;=&gt; M02127_n + amet_n</t>
+          <t>dhcrm_cho_c + h2o_c + h_c &lt;=&gt; Rtotal2_c + sphgn_c</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>[{'Nmelys_n': 'CH4X'}, {'ahcys_n': 'C14H20N6O5S'}, {'M02127_n': 'C7H13N3O2R2'}, {'amet_n': 'C15H23N6O5S'}]</t>
+          <t>[{'dhcrm_cho_c': 'C18H38NO2RCO'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'Rtotal2_c': 'CO2R2'}, {'sphgn_c': 'C18H40NO2'}]</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>{'C': 7, 'H': 12, 'X': -1, 'N': 3, 'O': 2, 'R': 2}</t>
+          <t>{'charge': -1, 'H': -1, 'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>HMR_6975</t>
+          <t>HMR_0758</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
+          <t>coa_c + crm_cho_c + h_c --&gt; Rtotal2coa_c + sphings_c</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>[{'amet_c': 'C15H23N6O5S'}, {'peplys_c': 'XH'}, {'M00213_c': 'C8H15N3O2R2'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
+          <t>[{'coa_c': 'C21H32N7O16P3S'}, {'crm_cho_c': 'C18H36NO2RCO'}, {'h_c': 'H'}, {'Rtotal2coa_c': 'CO2R2C21H31N7O15P3S'}, {'sphings_c': 'C18H38NO2'}]</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': 7, 'H': 11, 'N': 3, 'O': 2, 'X': -1, 'R': 2}</t>
+          <t>{'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>HMR_6976</t>
+          <t>HMR_8211</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>M00213_c + amet_c --&gt; Ndmelys_c + ahcys_c</t>
+          <t>crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>[{'M00213_c': 'C8H15N3O2R2'}, {'amet_c': 'C15H23N6O5S'}, {'Ndmelys_c': 'C2H7X'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
+          <t>[{'crm_cho_l': 'C18H36NO2RCO'}, {'h2o_l': 'H2O'}, {'h_l': 'H'}, {'Rtotal2_l': 'CO2R2'}, {'sphings_l': 'C18H38NO2'}]</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'C': -7, 'H': -11, 'N': -3, 'O': -2, 'R': -2, 'X': 1}</t>
+          <t>{'charge': -1, 'H': -1, 'R': 1}</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>HMR_6978</t>
+          <t>DOPACCL</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Ntmelys_c + h2o_c --&gt; h_c + tmlys_c</t>
+          <t>dopaqn_c --&gt; leukamchr_c</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>[{'Ntmelys_c': 'C3H10X'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'tmlys_c': 'C9H20N2O2'}]</t>
+          <t>[{'dopaqn_c': 'C9H9NO4'}, {'leukamchr_c': 'C9H8NO4'}]</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': 6, 'H': 9, 'X': -1, 'O': 1, 'N': 2}</t>
+          <t>{'charge': -1, 'H': -1}</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>HMR_6983</t>
+          <t>DOPAOQCYS</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
+          <t>cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'peplys_c': 'XH'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'co2_c': 'CO2'}, {'h2o_c': 'H2O'}, {'succ_c': 'C4H4O4'}]</t>
+          <t>[{'cys_L_c': 'C3H7NO2S'}, {'dopaqn_c': 'C9H9NO4'}, {'5cysdopa_c': 'C11H17N2O4S'}]</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': 6, 'H': 14, 'O': 3, 'X': -1, 'N': 2}</t>
+          <t>{'charge': 1, 'C': -1, 'H': 1, 'O': -2}</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>HMR_6984</t>
+          <t>NWHARGOR</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>pcollg5hlys_c + udpgal_c --&gt; M01036_c + h_c + udp_c</t>
+          <t>2.0 nwharg_c + o2_c &lt;=&gt; 2.0 citr_L_c + 2.0 no_c</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>[{'pcollg5hlys_c': 'C6H14N2O3'}, {'udpgal_c': 'C15H22N2O17P2'}, {'M01036_c': 'C13H23N3O8R2'}, {'h_c': 'H'}, {'udp_c': 'C9H11N2O12P2'}]</t>
+          <t>[{'nwharg_c': 'C6H15N4O3'}, {'o2_c': 'O2'}, {'citr_L_c': 'C6H13N3O3'}, {'no_c': 'NO'}]</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>{'C': 1, 'H': -1, 'N': 1, 'R': 2}</t>
+          <t>{'charge': -2.0, 'H': -4.0}</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>HOLYSK</t>
+          <t>THP2CDH</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>gtp_c + pcollg5hlys_c --&gt; gdp_c + h_c + pholys_c</t>
+          <t>h2o_c + nad_c + thp2c_c &lt;=&gt; L2aadp6sa_c + 2.0 h_c + nadh_c</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>[{'gtp_c': 'C10H12N5O14P3'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'gdp_c': 'C10H12N5O11P2'}, {'h_c': 'H'}, {'pholys_c': 'C6H14N2O6P'}]</t>
+          <t>[{'h2o_c': 'H2O'}, {'nad_c': 'C21H26N7O14P2'}, {'thp2c_c': 'C6H8NO2'}, {'L2aadp6sa_c': 'C6H11NO3'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}]</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>{'charge': 1, 'H': 1}</t>
+          <t>{'charge': 2.0, 'H': 4.0}</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>PCLYSOX</t>
+          <t>HMR_4241</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
+          <t>Nmelys_n + ahcys_n &lt;=&gt; M02127_n + amet_n</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'o2_c': 'O2'}, {'pcollglys_c': 'C7H14N3O2R2'}, {'co2_c': 'CO2'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'succ_c': 'C4H4O4'}]</t>
+          <t>[{'Nmelys_n': 'CH4X'}, {'ahcys_n': 'C14H20N6O5S'}, {'M02127_n': 'C7H13N3O2R2'}, {'amet_n': 'C15H23N6O5S'}]</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': -1, 'N': -1, 'R': -2}</t>
+          <t>{'C': 7, 'H': 12, 'X': -1, 'N': 3, 'O': 2, 'R': 2}</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>PLYSPSer</t>
+          <t>HMR_6975</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
+          <t>amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>[{'Ntmelys_r': 'C3H10X'}, {'h2o_r': 'H2O'}, {'pepslys_r': 'X'}, {'tmlys_r': 'C9H21N2O2'}]</t>
+          <t>[{'amet_c': 'C15H23N6O5S'}, {'peplys_c': 'XH'}, {'M00213_c': 'C8H15N3O2R2'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>{'charge': -2, 'C': 6, 'H': 9, 'O': 1, 'N': 2}</t>
+          <t>{'charge': -1, 'C': 7, 'H': 11, 'N': 3, 'O': 2, 'X': -1, 'R': 2}</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>TMLYSOX</t>
+          <t>HMR_6976</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>akg_c + o2_c + tmlys_c --&gt; 3htmelys_c + co2_c + succ_c</t>
+          <t>M00213_c + amet_c --&gt; Ndmelys_c + ahcys_c</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'o2_c': 'O2'}, {'tmlys_c': 'C9H20N2O2'}, {'3htmelys_c': 'C9H20N2O3'}, {'co2_c': 'CO2'}, {'succ_c': 'C4H4O4'}]</t>
+          <t>[{'M00213_c': 'C8H15N3O2R2'}, {'amet_c': 'C15H23N6O5S'}, {'Ndmelys_c': 'C2H7X'}, {'ahcys_c': 'C14H20N6O5S'}]</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>{'charge': -1}</t>
+          <t>{'charge': 1, 'C': -7, 'H': -11, 'N': -3, 'O': -2, 'R': -2, 'X': 1}</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>GapFill-R03595</t>
+          <t>HMR_6978</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>atp_c + h2o_c + seln_c &lt;=&gt; amp_c + pi_c + selnp_c</t>
+          <t>Ntmelys_c + h2o_c --&gt; h_c + tmlys_c</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>[{'h2o_c': 'H2O'}, {'atp_c': 'C10H12N5O13P3'}, {'seln_c': 'HSe'}, {'amp_c': 'C10H12N5O7P'}, {'selnp_c': 'O3PSe'}, {'pi_c': 'HO4P'}]</t>
+          <t>[{'Ntmelys_c': 'C3H10X'}, {'h2o_c': 'H2O'}, {'h_c': 'H'}, {'tmlys_c': 'C9H20N2O2'}]</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>{'charge': -2, 'H': -2}</t>
+          <t>{'charge': -1, 'C': 6, 'H': 9, 'X': -1, 'O': 1, 'N': 2}</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>GapFill-R03599</t>
+          <t>HMR_6983</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>focytC_m + selcys_c &lt;=&gt; ala_L_c + ficytC_m + seln_c</t>
+          <t>akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>[{'selcys_c': 'C3H7NO2Se'}, {'focytC_m': 'C42H54FeN8O6S2'}, {'ala_L_c': 'C3H7NO2'}, {'seln_c': 'HSe'}, {'ficytC_m': 'C42H54FeN8O6S2'}]</t>
+          <t>[{'akg_c': 'C5H4O5'}, {'h_c': 'H'}, {'o2_c': 'O2'}, {'peplys_c': 'XH'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'co2_c': 'CO2'}, {'h2o_c': 'H2O'}, {'succ_c': 'C4H4O4'}]</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>{'H': 1}</t>
+          <t>{'charge': -1, 'C': 6, 'H': 14, 'O': 3, 'X': -1, 'N': 2}</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>HMR_7131</t>
+          <t>HMR_6984</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>4.0 h_c + 3.0 nadph_c + selni_c &lt;=&gt; 3.0 h2o_c + 3.0 nadp_c + seln_c</t>
+          <t>pcollg5hlys_c + udpgal_c --&gt; M01036_c + h_c + udp_c</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'selni_c': 'SeO3'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'seln_c': 'HSe'}]</t>
+          <t>[{'pcollg5hlys_c': 'C6H14N2O3'}, {'udpgal_c': 'C15H22N2O17P2'}, {'M01036_c': 'C13H23N3O8R2'}, {'h_c': 'H'}, {'udp_c': 'C9H11N2O12P2'}]</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>{'charge': -2.0}</t>
+          <t>{'C': 1, 'H': -1, 'N': 1, 'R': 2}</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>r0647</t>
+          <t>HOLYSK</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>42A3HP24DB_c &lt;=&gt; C02470_c + h2o_c</t>
+          <t>gtp_c + pcollg5hlys_c --&gt; gdp_c + h_c + pholys_c</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>[{'42A3HP24DB_c': 'C10H8NO5'}, {'h2o_c': 'H2O'}, {'C02470_c': 'C10H6NO4'}]</t>
+          <t>[{'gtp_c': 'C10H12N5O14P3'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'gdp_c': 'C10H12N5O11P2'}, {'h_c': 'H'}, {'pholys_c': 'C6H14N2O6P'}]</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>{'charge': 1}</t>
+          <t>{'charge': 1, 'H': 1}</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>MMCD</t>
+          <t>PCLYSOX</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
+          <t>akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'mmcoa_S_c': 'C25H35N7O19P3S'}, {'co2_c': 'CO2'}, {'ppcoa_c': 'C24H36N7O17P3S'}]</t>
+          <t>[{'akg_c': 'C5H4O5'}, {'o2_c': 'O2'}, {'pcollglys_c': 'C7H14N3O2R2'}, {'co2_c': 'CO2'}, {'pcollg5hlys_c': 'C6H14N2O3'}, {'succ_c': 'C4H4O4'}]</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>{'charge': -5}</t>
+          <t>{'charge': -1, 'C': -1, 'N': -1, 'R': -2}</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>RE1266C</t>
+          <t>PLYSPSer</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
+          <t>Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>[{'4mop_c': 'C6H9O3'}, {'o2_c': 'O2'}, {'CE2028_c': 'C5H8O3'}, {'co2_c': 'CO2'}]</t>
+          <t>[{'Ntmelys_r': 'C3H10X'}, {'h2o_r': 'H2O'}, {'pepslys_r': 'X'}, {'tmlys_r': 'C9H21N2O2'}]</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>{'H': -1}</t>
+          <t>{'charge': -2, 'C': 6, 'H': 9, 'O': 1, 'N': 2}</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>HGDm</t>
+          <t>TMLYSOX</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2hog_m + fad_m --&gt; akg_m + fadh2_m</t>
+          <t>akg_c + o2_c + tmlys_c --&gt; 3htmelys_c + co2_c + succ_c</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>[{'2hog_m': 'C5H8O5'}, {'fad_m': 'C27H31N9O15P2'}, {'akg_m': 'C5H4O5'}, {'fadh2_m': 'C27H33N9O15P2'}]</t>
+          <t>[{'akg_c': 'C5H4O5'}, {'o2_c': 'O2'}, {'tmlys_c': 'C9H20N2O2'}, {'3htmelys_c': 'C9H20N2O3'}, {'co2_c': 'CO2'}, {'succ_c': 'C4H4O4'}]</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>{'H': -2}</t>
+          <t>{'charge': -1}</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>HMR_0718</t>
+          <t>GapFill-R03595</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>akg_c + fadh2_c --&gt; 2hog_c + fad_c</t>
+          <t>atp_c + h2o_c + seln_c &lt;=&gt; amp_c + pi_c + selnp_c</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'fadh2_c': 'C27H33N9O15P2'}, {'2hog_c': 'C5H8O5'}, {'fad_c': 'C27H31N9O15P2'}]</t>
+          <t>[{'h2o_c': 'H2O'}, {'atp_c': 'C10H12N5O13P3'}, {'seln_c': 'HSe'}, {'amp_c': 'C10H12N5O7P'}, {'selnp_c': 'O3PSe'}, {'pi_c': 'HO4P'}]</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>{'H': 2}</t>
+          <t>{'charge': -2, 'H': -2}</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>HMR_0719</t>
+          <t>GapFill-R03599</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>akg_c + h_c + nadh_c --&gt; 2hog_c + nad_c</t>
+          <t>focytC_m + selcys_c &lt;=&gt; ala_L_c + ficytC_m + seln_c</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>[{'akg_c': 'C5H4O5'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}, {'2hog_c': 'C5H8O5'}, {'nad_c': 'C21H26N7O14P2'}]</t>
+          <t>[{'selcys_c': 'C3H7NO2Se'}, {'focytC_m': 'C42H54FeN8O6S2'}, {'ala_L_c': 'C3H7NO2'}, {'seln_c': 'HSe'}, {'ficytC_m': 'C42H54FeN8O6S2'}]</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>{'H': 2}</t>
+          <t>{'H': 1}</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>FAH3</t>
+          <t>HMR_7131</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>h_c + hdca_c + nadph_c + o2_c --&gt; h2o_c + nadp_c + whhdca_c</t>
+          <t>4.0 h_c + 3.0 nadph_c + selni_c &lt;=&gt; 3.0 h2o_c + 3.0 nadp_c + seln_c</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>[{'h_c': 'H'}, {'hdca_c': 'C16H31O2'}, {'nadph_c': 'C21H26N7O17P3'}, {'o2_c': 'O2'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'whhdca_c': 'C16H30O3'}]</t>
+          <t>[{'h_c': 'H'}, {'nadph_c': 'C21H26N7O17P3'}, {'selni_c': 'SeO3'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'seln_c': 'HSe'}]</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>{'H': -1}</t>
+          <t>{'charge': -2.0}</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>HMR_8378</t>
+          <t>r0647</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>M02645_c + dolp_c &lt;=&gt; Ser_Gly_Ala_X_Gly_c + dolmanp_c</t>
+          <t>42A3HP24DB_c &lt;=&gt; C02470_c + h2o_c</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>[{'M02645_c': 'C10H16N2O8R2'}, {'dolp_c': 'C95H155O4P'}, {'Ser_Gly_Ala_X_Gly_c': 'XH'}, {'dolmanp_c': 'C101H166O9P'}]</t>
+          <t>[{'42A3HP24DB_c': 'C10H8NO5'}, {'h2o_c': 'H2O'}, {'C02470_c': 'C10H6NO4'}]</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>{'C': -4, 'H': -4, 'N': -2, 'O': -3, 'R': -2, 'charge': 1, 'X': 1}</t>
+          <t>{'charge': 1}</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>PI4P3Ker</t>
+          <t>MMCD</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
+          <t>h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>[{'atp_r': 'C10H12N5O13P3'}, {'pail4p_cho_r': 'C9H15O12P2RCO2R2CO2'}, {'adp_r': 'C10H12N5O10P2'}, {'h_r': 'H'}, {'pail34p_cho_r': 'C9H14O15P3RCO2R2CO2'}]</t>
+          <t>[{'h_c': 'H'}, {'mmcoa_S_c': 'C25H35N7O19P3S'}, {'co2_c': 'CO2'}, {'ppcoa_c': 'C24H36N7O17P3S'}]</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>{'charge': 5}</t>
+          <t>{'charge': -5}</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>PTA2</t>
+          <t>RE1266C</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>pi_c + ppcoa_c &lt;=&gt; coa_c + ppap_c</t>
+          <t>4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>[{'pi_c': 'HO4P'}, {'ppcoa_c': 'C24H36N7O17P3S'}, {'coa_c': 'C21H32N7O16P3S'}, {'ppap_c': 'C3H5O5P'}]</t>
+          <t>[{'4mop_c': 'C6H9O3'}, {'o2_c': 'O2'}, {'CE2028_c': 'C5H8O3'}, {'co2_c': 'CO2'}]</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>{'charge': 2}</t>
+          <t>{'H': -1}</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>peplys_synthesis</t>
+          <t>HGDm</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>lys_L_n --&gt; peplys_n</t>
+          <t>2hog_m + fad_m --&gt; akg_m + fadh2_m</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>[{'lys_L_n': 'C6H15N2O2'}, {'peplys_n': 'HX'}]</t>
+          <t>[{'2hog_m': 'C5H8O5'}, {'fad_m': 'C27H31N9O15P2'}, {'akg_m': 'C5H4O5'}, {'fadh2_m': 'C27H33N9O15P2'}]</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>{'charge': -1, 'C': -6, 'H': -14, 'N': -2, 'O': -2, 'X': 1}</t>
+          <t>{'H': -2}</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>AGLPET</t>
+          <t>HMR_0718</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>ak2g_cho_c + cdpea_c + h_c &lt;=&gt; ak2gpe_cho_c + cmp_c + h2o_c</t>
+          <t>akg_c + fadh2_c --&gt; 2hog_c + fad_c</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>[{'ak2g_cho_c': 'C5H10O2RR2CO2'}, {'cdpea_c': 'C11H19N4O11P2'}, {'h_c': 'H'}, {'ak2gpe_cho_c': 'C7H16O5NPRR2CO'}, {'cmp_c': 'C9H12N3O8P'}, {'h2o_c': 'H2O'}]</t>
+          <t>[{'akg_c': 'C5H4O5'}, {'fadh2_c': 'C27H33N9O15P2'}, {'2hog_c': 'C5H8O5'}, {'fad_c': 'C27H31N9O15P2'}]</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>{'charge': -2}</t>
+          <t>{'H': 2}</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
+          <t>HMR_0719</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>akg_c + h_c + nadh_c --&gt; 2hog_c + nad_c</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>[{'akg_c': 'C5H4O5'}, {'h_c': 'H'}, {'nadh_c': 'C21H27N7O14P2'}, {'2hog_c': 'C5H8O5'}, {'nad_c': 'C21H26N7O14P2'}]</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>{'H': 2}</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>FAH3</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>h_c + hdca_c + nadph_c + o2_c --&gt; h2o_c + nadp_c + whhdca_c</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>[{'h_c': 'H'}, {'hdca_c': 'C16H31O2'}, {'nadph_c': 'C21H26N7O17P3'}, {'o2_c': 'O2'}, {'h2o_c': 'H2O'}, {'nadp_c': 'C21H25N7O17P3'}, {'whhdca_c': 'C16H30O3'}]</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>{'H': -1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>HMR_8378</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>M02645_c + dolp_c &lt;=&gt; Ser_Gly_Ala_X_Gly_c + dolmanp_c</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>[{'M02645_c': 'C10H16N2O8R2'}, {'dolp_c': 'C95H155O4P'}, {'Ser_Gly_Ala_X_Gly_c': 'XH'}, {'dolmanp_c': 'C101H166O9P'}]</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>{'C': -4, 'H': -4, 'N': -2, 'O': -3, 'R': -2, 'charge': 1, 'X': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>PI4P3Ker</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>[{'atp_r': 'C10H12N5O13P3'}, {'pail4p_cho_r': 'C9H15O12P2RCO2R2CO2'}, {'adp_r': 'C10H12N5O10P2'}, {'h_r': 'H'}, {'pail34p_cho_r': 'C9H14O15P3RCO2R2CO2'}]</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>{'charge': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>PTA2</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>pi_c + ppcoa_c &lt;=&gt; coa_c + ppap_c</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>[{'pi_c': 'HO4P'}, {'ppcoa_c': 'C24H36N7O17P3S'}, {'coa_c': 'C21H32N7O16P3S'}, {'ppap_c': 'C3H5O5P'}]</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>{'charge': 2}</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>peplys_synthesis</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>lys_L_n --&gt; peplys_n</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>[{'lys_L_n': 'C6H15N2O2'}, {'peplys_n': 'HX'}]</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>{'charge': -1, 'C': -6, 'H': -14, 'N': -2, 'O': -2, 'X': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>AGLPET</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>ak2g_cho_c + cdpea_c + h_c &lt;=&gt; ak2gpe_cho_c + cmp_c + h2o_c</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>[{'ak2g_cho_c': 'C5H10O2RR2CO2'}, {'cdpea_c': 'C11H19N4O11P2'}, {'h_c': 'H'}, {'ak2gpe_cho_c': 'C7H16O5NPRR2CO'}, {'cmp_c': 'C9H12N3O8P'}, {'h2o_c': 'H2O'}]</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>{'charge': -2}</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
           <t>R10104</t>
         </is>
       </c>
-      <c r="B748" t="inlineStr">
+      <c r="B755" t="inlineStr">
         <is>
           <t>Rtotalcoa_x + 2.0 h_x + 2.0 nadph_x &lt;=&gt; alkylR1oh_x + coa_x + 2.0 nadp_x</t>
         </is>
       </c>
-      <c r="C748" t="inlineStr">
+      <c r="C755" t="inlineStr">
         <is>
           <t>[{'Rtotalcoa_x': 'CO2RC21H31N7O15P3S'}, {'h_x': 'H'}, {'nadph_x': 'C21H26N7O17P3'}, {'alkylR1oh_x': 'C2H5OR'}, {'coa_x': 'C21H32N7O16P3S'}, {'nadp_x': 'C21H25N7O17P3'}]</t>
         </is>
       </c>
-      <c r="D748" t="inlineStr">
+      <c r="D755" t="inlineStr">
         <is>
           <t>{'C': 1.0, 'H': 2.0}</t>
         </is>

--- a/Notebooks/temp/mass_unbalanced_reactions.xlsx
+++ b/Notebooks/temp/mass_unbalanced_reactions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D755"/>
+  <dimension ref="A1:D756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17043,6 +17043,28 @@
         </is>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>XOLESTPOOL</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>xolest_cho_l &lt;=&gt; 0.138 HC02020_l + 0.0001 HC02021_l + 0.0132 HC02022_l + 0.1958 HC02023_l + 0.5254 HC02024_l + 0.0061 HC02025_l + 0.0001 HC02026_l + 0.0518 HC02027_l + 0.0001 M01452_l + 0.0001 M01453_l + 0.0001 M01454_l + 0.0001 M01455_l + 0.0001 M01456_l + 0.0001 M01457_l + 0.0001 M01458_l + 0.0001 M01459_l + 0.0001 M01460_l + 0.0001 M01461_l + 0.0001 M01462_l + 0.0001 M01463_l + 0.0001 M01464_l + 0.0001 M01465_l + 0.0041 M01466_l + 0.0001 M01467_l + 0.0071 M01468_l + 0.0001 M01469_l + 0.0001 M01470_l + 0.0001 M01471_l + 0.0001 M01472_l + 0.0001 M01473_l + 0.0001 M01474_l + 0.0001 M01475_l + 0.0001 M01476_l + 0.0406 M01477_l + 0.0001 M01478_l + 0.0001 M01479_l + 0.0001 M01480_l + 0.0001 M01481_l + 0.0001 M01482_l + 0.0001 M01483_l + 0.0001 M01484_l + 0.0001 M01485_l + 0.0001 M01486_l + 0.0001 M01487_l + 0.005 M01490_l + 0.0001 M01491_l + 0.0001 M01492_l + 0.0001 M01494_l + 0.0001 M01495_l + 0.0001 M01496_l + 0.0001 M01497_l + 0.0001 M01498_l + 0.0081 M01501_l + 0.0001 M01502_l + 0.0001 M01506_l + 0.0001 M01508_l + 0.0001 M01509_l + 0.0001 M01510_l</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>[{'xolest_cho_l': 'C27H45RCO2'}, {'HC02020_l': 'C43H76O2'}, {'HC02021_l': 'C43H74O2'}, {'HC02022_l': 'C45H80O2'}, {'HC02023_l': 'C45H78O2'}, {'HC02024_l': 'C45H76O2'}, {'HC02025_l': 'C45H74O2'}, {'HC02026_l': 'C45H74O2'}, {'HC02027_l': 'C47H76O2'}, {'M01452_l': 'C49H80O2'}, {'M01453_l': 'C49H82O2'}, {'M01454_l': 'C44H76O2'}, {'M01455_l': 'C47H78O2'}, {'M01456_l': 'C47H80O2'}, {'M01457_l': 'C49H86O2'}, {'M01458_l': 'C47H82O2'}, {'M01459_l': 'C51H84O2'}, {'M01460_l': 'C49H82O2'}, {'M01461_l': 'C49H84O2'}, {'M01462_l': 'C49H86O2'}, {'M01463_l': 'C47H82O2'}, {'M01464_l': 'C45H78O2'}, {'M01465_l': 'C51H90O2'}, {'M01466_l': 'C49H76O2'}, {'M01467_l': 'C49H78O2'}, {'M01468_l': 'C47H74O2'}, {'M01469_l': 'C47H78O2'}, {'M01470_l': 'C41H70O2'}, {'M01471_l': 'C51H80O2'}, {'M01472_l': 'C51H82O2'}, {'M01473_l': 'C45H72O2'}, {'M01474_l': 'C45H76O2'}, {'M01475_l': 'C49H78O2'}, {'M01476_l': 'C49H80O2'}, {'M01477_l': 'C43H74O2'}, {'M01478_l': 'C45H78O2'}, {'M01479_l': 'C41H70O2'}, {'M01480_l': 'C47H76O2'}, {'M01481_l': 'C47H80O2'}, {'M01482_l': 'C51H82O2'}, {'M01483_l': 'C51H84O2'}, {'M01484_l': 'C47H82O2'}, {'M01485_l': 'C44H76O2'}, {'M01486_l': 'C45H78O2'}, {'M01487_l': 'C41H70O2'}, {'M01490_l': 'C47H78O2'}, {'M01491_l': 'C49H88O2'}, {'M01492_l': 'C47H84O2'}, {'M01494_l': 'C48H86O2'}, {'M01495_l': 'C44H78O2'}, {'M01496_l': 'C53H96O2'}, {'M01497_l': 'C53H94O2'}, {'M01498_l': 'C39H68O2'}, {'M01501_l': 'C41H72O2'}, {'M01502_l': 'C46H82O2'}, {'M01506_l': 'C42H74O2'}, {'M01508_l': 'C51H92O2'}, {'M01509_l': 'C50H90O2'}, {'M01510_l': 'C40H70O2'}]</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>{'C': 16.759499999999996, 'H': 31.326599999999992, 'R': -1, 'O': -0.00019999999999999963}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
